--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_25_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_25_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2412816.518063758</v>
+        <v>-2413042.928787025</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.5951960794</v>
+        <v>244259.5951960772</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.312425053677109</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="F11" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="G11" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="H11" t="n">
-        <v>6.050587375258447</v>
+        <v>3.312425053676946</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1397,22 +1397,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1820789432861716</v>
+        <v>0.1820789432861147</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.172029238104017</v>
+        <v>1.172029238103981</v>
       </c>
       <c r="P11" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3748116567057345</v>
+        <v>0.3748116567057309</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.776118928915253</v>
+        <v>1.776118928915366</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.855010797549896</v>
+        <v>5.051023054881162</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.03789351048195</v>
+        <v>6.037893510482891</v>
       </c>
       <c r="F14" t="n">
-        <v>6.855010797549896</v>
+        <v>6.855010797550969</v>
       </c>
       <c r="G14" t="n">
-        <v>6.855010797549896</v>
+        <v>6.855010797550969</v>
       </c>
       <c r="H14" t="n">
-        <v>6.855010797549896</v>
+        <v>6.855010797550969</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>6.855010797549896</v>
+        <v>6.855010797550969</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1643,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9270686221162805</v>
+        <v>0.9270686221158826</v>
       </c>
       <c r="P14" t="n">
-        <v>6.855010797549896</v>
+        <v>6.855010797550969</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1298510407179982</v>
+        <v>0.1298510407176643</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.531158312927516</v>
+        <v>1.531158312927289</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.051023054879904</v>
+        <v>6.855010797550969</v>
       </c>
     </row>
     <row r="15">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.18346265559569</v>
+        <v>16.18346265559575</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10.25255718659713</v>
+        <v>10.25255718659719</v>
       </c>
       <c r="F17" t="n">
-        <v>16.18346265559569</v>
+        <v>16.18346265559575</v>
       </c>
       <c r="G17" t="n">
-        <v>16.18346265559569</v>
+        <v>16.18346265559575</v>
       </c>
       <c r="H17" t="n">
-        <v>16.18346265559569</v>
+        <v>16.18346265559575</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.18408168760824</v>
+        <v>10.18408168760811</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.564266856206928</v>
+        <v>5.564266856206814</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.18346265559569</v>
+        <v>16.18346265559575</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.66159817792862</v>
+        <v>15.66159817792857</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.730692708930064</v>
+        <v>9.730692708930007</v>
       </c>
       <c r="F20" t="n">
-        <v>20.18544307877202</v>
+        <v>20.1854430787727</v>
       </c>
       <c r="G20" t="n">
-        <v>20.18544307877202</v>
+        <v>20.1854430787727</v>
       </c>
       <c r="H20" t="n">
-        <v>20.18544307877202</v>
+        <v>20.1854430787727</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>9.662217209941161</v>
+        <v>9.662217209940934</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.042402378539862</v>
+        <v>5.042402378539634</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>20.18544307877202</v>
+        <v>20.1854430787727</v>
       </c>
     </row>
     <row r="21">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.36399793772222</v>
+        <v>14.36399793772227</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.433092468723657</v>
+        <v>8.433092468723714</v>
       </c>
       <c r="F23" t="n">
-        <v>31.20397574860061</v>
+        <v>31.20397574860067</v>
       </c>
       <c r="G23" t="n">
-        <v>31.20397574860061</v>
+        <v>31.20397574860067</v>
       </c>
       <c r="H23" t="n">
-        <v>26.93305820714158</v>
+        <v>26.93305820714164</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.364616969734755</v>
+        <v>8.364616969734641</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.744802138333455</v>
+        <v>3.744802138333341</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.20397574860061</v>
+        <v>31.20397574860067</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.3639979377221</v>
+        <v>14.36399793772216</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.433092468723544</v>
+        <v>8.433092468723601</v>
       </c>
       <c r="F26" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860056</v>
       </c>
       <c r="G26" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860056</v>
       </c>
       <c r="H26" t="n">
-        <v>26.93305820714147</v>
+        <v>26.93305820714153</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.364616969734584</v>
+        <v>8.364616969734527</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860056</v>
       </c>
     </row>
     <row r="27">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.36399793772205</v>
+        <v>14.36399793772222</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.433092468723487</v>
+        <v>8.433092468723657</v>
       </c>
       <c r="F29" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860061</v>
       </c>
       <c r="G29" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860061</v>
       </c>
       <c r="H29" t="n">
-        <v>26.93305820714141</v>
+        <v>26.93305820714158</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>8.364616969734584</v>
+        <v>8.364616969734609</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.20397574860044</v>
+        <v>31.20397574860061</v>
       </c>
     </row>
     <row r="30">
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.129069054026616</v>
+        <v>7.129069054026445</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.509254222625291</v>
+        <v>2.509254222625145</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.49880555947414</v>
+        <v>13.49880555947425</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.567900090475575</v>
+        <v>7.567900090475689</v>
       </c>
       <c r="F35" t="n">
-        <v>45.33883145211496</v>
+        <v>45.33883145211502</v>
       </c>
       <c r="G35" t="n">
-        <v>45.33883145211496</v>
+        <v>45.33883145211502</v>
       </c>
       <c r="H35" t="n">
-        <v>26.0678658288935</v>
+        <v>26.06786582889362</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.879609760085373</v>
+        <v>2.879609760085316</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.33878337035253</v>
+        <v>30.33878337035264</v>
       </c>
     </row>
     <row r="36">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.54804419540022</v>
+        <v>13.54804419540028</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7.617138726401663</v>
+        <v>7.61713872640172</v>
       </c>
       <c r="F38" t="n">
-        <v>44.53440802982351</v>
+        <v>44.53440802982244</v>
       </c>
       <c r="G38" t="n">
-        <v>44.53440802982351</v>
+        <v>44.53440802982244</v>
       </c>
       <c r="H38" t="n">
-        <v>26.11710446481959</v>
+        <v>26.11710446481965</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7.54866322741276</v>
+        <v>7.548663227412703</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.92884839601146</v>
+        <v>2.928848396011347</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>30.38802200627862</v>
+        <v>30.38802200627867</v>
       </c>
     </row>
     <row r="39">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.11903732173454</v>
+        <v>14.11903732173442</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.188131852735978</v>
+        <v>8.188131852735864</v>
       </c>
       <c r="F41" t="n">
-        <v>35.20595617177696</v>
+        <v>35.2059561717776</v>
       </c>
       <c r="G41" t="n">
-        <v>35.20595617177696</v>
+        <v>35.2059561717776</v>
       </c>
       <c r="H41" t="n">
-        <v>26.68809759115391</v>
+        <v>26.68809759115379</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.119656353747075</v>
+        <v>8.119656353746848</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.499841522345776</v>
+        <v>3.499841522345491</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>30.95901513261293</v>
+        <v>30.95901513261282</v>
       </c>
     </row>
     <row r="42">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.36399793772222</v>
+        <v>14.36399793772227</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.433092468723657</v>
+        <v>8.433092468723714</v>
       </c>
       <c r="F44" t="n">
-        <v>31.20397574860061</v>
+        <v>31.20397574860067</v>
       </c>
       <c r="G44" t="n">
-        <v>31.20397574860061</v>
+        <v>31.20397574860067</v>
       </c>
       <c r="H44" t="n">
-        <v>26.93305820714158</v>
+        <v>26.93305820714164</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.364616969734694</v>
+        <v>8.364616969734755</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.744802138333341</v>
+        <v>3.744802138333398</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.20397574860061</v>
+        <v>31.20397574860067</v>
       </c>
     </row>
     <row r="45">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.18488113797102</v>
+        <v>10.18488113797079</v>
       </c>
       <c r="C11" t="n">
-        <v>16.17496263947688</v>
+        <v>16.17496263947659</v>
       </c>
       <c r="D11" t="n">
-        <v>22.16504414098275</v>
+        <v>22.1650441409824</v>
       </c>
       <c r="E11" t="n">
-        <v>18.81916024837961</v>
+        <v>16.05333972152948</v>
       </c>
       <c r="F11" t="n">
-        <v>12.70745582892663</v>
+        <v>9.941635302076563</v>
       </c>
       <c r="G11" t="n">
-        <v>6.595751409473652</v>
+        <v>3.829930882623647</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="I11" t="n">
-        <v>5.917404924076891</v>
+        <v>5.917404924076777</v>
       </c>
       <c r="J11" t="n">
-        <v>6.59110862290307</v>
+        <v>8.46375800226517</v>
       </c>
       <c r="K11" t="n">
-        <v>12.58119012440893</v>
+        <v>14.45383950377097</v>
       </c>
       <c r="L11" t="n">
-        <v>6.469485704955956</v>
+        <v>8.342135084318057</v>
       </c>
       <c r="M11" t="n">
-        <v>6.285567580424637</v>
+        <v>8.158216959786674</v>
       </c>
       <c r="N11" t="n">
-        <v>8.158216959786461</v>
+        <v>8.158216959786674</v>
       </c>
       <c r="O11" t="n">
-        <v>6.974349042509677</v>
+        <v>6.974349042509926</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8626446230567</v>
+        <v>0.8626446230567628</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="S11" t="n">
-        <v>6.474128491526507</v>
+        <v>6.232104996516139</v>
       </c>
       <c r="T11" t="n">
-        <v>6.474128491526507</v>
+        <v>12.22218649802194</v>
       </c>
       <c r="U11" t="n">
-        <v>12.46420999303237</v>
+        <v>18.21226799952774</v>
       </c>
       <c r="V11" t="n">
-        <v>18.45429149453823</v>
+        <v>24.20234950103355</v>
       </c>
       <c r="W11" t="n">
-        <v>24.20234950103379</v>
+        <v>24.20234950103355</v>
       </c>
       <c r="X11" t="n">
-        <v>22.40828997687698</v>
+        <v>22.40828997687662</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.296585557424</v>
+        <v>16.29658555742371</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="W12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="X12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="U13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="W13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="X13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.4840469900206757</v>
+        <v>0.4840469900206709</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.84712181105079</v>
+        <v>13.84712181105296</v>
       </c>
       <c r="C14" t="n">
-        <v>20.63358250062519</v>
+        <v>20.63358250062842</v>
       </c>
       <c r="D14" t="n">
-        <v>27.42004319019959</v>
+        <v>27.42004319020388</v>
       </c>
       <c r="E14" t="n">
-        <v>21.32116085637943</v>
+        <v>21.32116085638278</v>
       </c>
       <c r="F14" t="n">
-        <v>14.39690752552095</v>
+        <v>14.39690752552321</v>
       </c>
       <c r="G14" t="n">
-        <v>7.472654194662473</v>
+        <v>7.472654194663644</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="I14" t="n">
-        <v>6.224269807688074</v>
+        <v>6.224269807688415</v>
       </c>
       <c r="J14" t="n">
-        <v>13.01073049726248</v>
+        <v>13.01073049726401</v>
       </c>
       <c r="K14" t="n">
-        <v>17.88776990265578</v>
+        <v>13.2870898993819</v>
       </c>
       <c r="L14" t="n">
-        <v>10.9635165717973</v>
+        <v>6.362836568522287</v>
       </c>
       <c r="M14" t="n">
-        <v>11.02576942777182</v>
+        <v>6.42508942449723</v>
       </c>
       <c r="N14" t="n">
-        <v>13.14092981696177</v>
+        <v>8.540249813687353</v>
       </c>
       <c r="O14" t="n">
-        <v>12.20449686532919</v>
+        <v>7.603816862055169</v>
       </c>
       <c r="P14" t="n">
-        <v>5.280243534470712</v>
+        <v>0.6795635311956577</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.149080867078794</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="R14" t="n">
-        <v>7.060661121476414</v>
+        <v>2.459981118201995</v>
       </c>
       <c r="S14" t="n">
-        <v>13.84712181105081</v>
+        <v>9.246441807777423</v>
       </c>
       <c r="T14" t="n">
-        <v>20.63358250062519</v>
+        <v>16.03290249735288</v>
       </c>
       <c r="U14" t="n">
-        <v>20.63358250062519</v>
+        <v>22.81936318692834</v>
       </c>
       <c r="V14" t="n">
-        <v>27.42004319019959</v>
+        <v>27.42004319020388</v>
       </c>
       <c r="W14" t="n">
-        <v>27.42004319019959</v>
+        <v>27.42004319020388</v>
       </c>
       <c r="X14" t="n">
-        <v>25.87341863168695</v>
+        <v>25.87341863169147</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.77137514190927</v>
+        <v>18.94916530083191</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="U15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="X16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5484008638039918</v>
+        <v>0.5484008638040776</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.0399866716844</v>
+        <v>28.6483352507165</v>
       </c>
       <c r="C17" t="n">
-        <v>48.06161470072414</v>
+        <v>44.66996327975629</v>
       </c>
       <c r="D17" t="n">
-        <v>60.69159130879547</v>
+        <v>60.69159130879555</v>
       </c>
       <c r="E17" t="n">
-        <v>50.3354729384952</v>
+        <v>50.33547293849537</v>
       </c>
       <c r="F17" t="n">
-        <v>33.98854096314602</v>
+        <v>33.98854096314614</v>
       </c>
       <c r="G17" t="n">
-        <v>17.64160898779684</v>
+        <v>17.6416089877969</v>
       </c>
       <c r="H17" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="I17" t="n">
-        <v>8.998748820702124</v>
+        <v>8.998748820702081</v>
       </c>
       <c r="J17" t="n">
-        <v>23.02373907057362</v>
+        <v>8.998748820702081</v>
       </c>
       <c r="K17" t="n">
-        <v>23.02373907057362</v>
+        <v>18.19400753065084</v>
       </c>
       <c r="L17" t="n">
-        <v>12.73678787096934</v>
+        <v>7.907056331046685</v>
       </c>
       <c r="M17" t="n">
-        <v>14.8272435913143</v>
+        <v>7.907056331046685</v>
       </c>
       <c r="N17" t="n">
-        <v>14.8272435913143</v>
+        <v>7.907056331046685</v>
       </c>
       <c r="O17" t="n">
-        <v>15.93764851978948</v>
+        <v>7.907056331046685</v>
       </c>
       <c r="P17" t="n">
-        <v>10.31717694786329</v>
+        <v>2.28658475912061</v>
       </c>
       <c r="Q17" t="n">
-        <v>12.21682728192286</v>
+        <v>4.186235093180237</v>
       </c>
       <c r="R17" t="n">
-        <v>16.15661040069142</v>
+        <v>4.186235093180237</v>
       </c>
       <c r="S17" t="n">
-        <v>32.17823842973115</v>
+        <v>20.20786312222003</v>
       </c>
       <c r="T17" t="n">
-        <v>48.19986645877088</v>
+        <v>20.20786312222003</v>
       </c>
       <c r="U17" t="n">
-        <v>48.19986645877088</v>
+        <v>36.22949115125981</v>
       </c>
       <c r="V17" t="n">
-        <v>48.19986645877088</v>
+        <v>44.8082150378031</v>
       </c>
       <c r="W17" t="n">
-        <v>64.22149448781062</v>
+        <v>60.82984306684289</v>
       </c>
       <c r="X17" t="n">
-        <v>64.73385062238276</v>
+        <v>61.34219920141498</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.38691864703358</v>
+        <v>44.99526722606574</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="C18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="D18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="E18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="F18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="G18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="H18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="I18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="J18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="K18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="L18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="M18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="N18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="O18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="P18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="R18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="S18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="T18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="U18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="V18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="W18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="X18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="C19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="D19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="E19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="F19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="G19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="H19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="I19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="J19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="K19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="L19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="M19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="N19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="O19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="P19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="R19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="S19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="T19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="U19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="V19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="W19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="X19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.294677012447655</v>
+        <v>1.29467701244766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.78839985929293</v>
+        <v>33.26963732947998</v>
       </c>
       <c r="C20" t="n">
-        <v>52.6282386622024</v>
+        <v>53.1094761323895</v>
       </c>
       <c r="D20" t="n">
-        <v>72.6118273101867</v>
+        <v>73.09306478037448</v>
       </c>
       <c r="E20" t="n">
-        <v>62.78284477591394</v>
+        <v>63.26408224610176</v>
       </c>
       <c r="F20" t="n">
-        <v>42.39350833270988</v>
+        <v>42.87474580289701</v>
       </c>
       <c r="G20" t="n">
-        <v>22.00417188950582</v>
+        <v>22.48540935969227</v>
       </c>
       <c r="H20" t="n">
-        <v>1.614835446301761</v>
+        <v>2.096072916487271</v>
       </c>
       <c r="I20" t="n">
-        <v>1.614835446301761</v>
+        <v>2.096072916487271</v>
       </c>
       <c r="J20" t="n">
-        <v>21.59842409428606</v>
+        <v>2.096072916487271</v>
       </c>
       <c r="K20" t="n">
-        <v>31.31032863712502</v>
+        <v>11.80797745932654</v>
       </c>
       <c r="L20" t="n">
-        <v>21.55051327354809</v>
+        <v>2.048162095749836</v>
       </c>
       <c r="M20" t="n">
-        <v>24.15761482678326</v>
+        <v>2.048162095749836</v>
       </c>
       <c r="N20" t="n">
-        <v>24.15761482678326</v>
+        <v>6.708171182200554</v>
       </c>
       <c r="O20" t="n">
-        <v>24.15761482678326</v>
+        <v>6.708171182200554</v>
       </c>
       <c r="P20" t="n">
-        <v>19.06427909088441</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.48057525783437</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="R20" t="n">
-        <v>25.93700420949276</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="S20" t="n">
-        <v>25.93700420949276</v>
+        <v>8.499002000589016</v>
       </c>
       <c r="T20" t="n">
-        <v>45.92059285747705</v>
+        <v>28.48259064857399</v>
       </c>
       <c r="U20" t="n">
-        <v>65.90418150546135</v>
+        <v>28.48259064857399</v>
       </c>
       <c r="V20" t="n">
-        <v>65.90418150546135</v>
+        <v>48.46617929655896</v>
       </c>
       <c r="W20" t="n">
-        <v>67.9685304743563</v>
+        <v>68.44976794454394</v>
       </c>
       <c r="X20" t="n">
-        <v>68.99753244181883</v>
+        <v>69.47876991200653</v>
       </c>
       <c r="Y20" t="n">
-        <v>48.60819599861478</v>
+        <v>49.08943346880177</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="C21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="D21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="E21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="F21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="G21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="H21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="I21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="J21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="K21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="L21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="M21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="N21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="O21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="P21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="R21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="S21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="T21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="U21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="V21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="W21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="X21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="C22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="D22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="E22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="F22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="G22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="H22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="I22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="J22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="K22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="L22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="M22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="N22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="O22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="P22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="R22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="S22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="T22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="U22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="V22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="W22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="X22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.614835446301761</v>
+        <v>1.614835446301816</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.78764674559147</v>
+        <v>78.78764674559154</v>
       </c>
       <c r="C23" t="n">
-        <v>99.91210978630528</v>
+        <v>99.91210978630535</v>
       </c>
       <c r="D23" t="n">
-        <v>101.2580374266219</v>
+        <v>101.2580374266222</v>
       </c>
       <c r="E23" t="n">
-        <v>92.73976220568893</v>
+        <v>92.7397622056891</v>
       </c>
       <c r="F23" t="n">
-        <v>61.22059478286003</v>
+        <v>61.22059478286015</v>
       </c>
       <c r="G23" t="n">
-        <v>29.70142736003107</v>
+        <v>29.70142736003113</v>
       </c>
       <c r="H23" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="I23" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="J23" t="n">
-        <v>11.90175801946588</v>
+        <v>33.38825405100271</v>
       </c>
       <c r="K23" t="n">
-        <v>11.90175801946588</v>
+        <v>44.38478283164633</v>
       </c>
       <c r="L23" t="n">
-        <v>3.452649969228716</v>
+        <v>35.93567478140932</v>
       </c>
       <c r="M23" t="n">
-        <v>3.452649969228716</v>
+        <v>35.93567478140932</v>
       </c>
       <c r="N23" t="n">
-        <v>9.397283293483596</v>
+        <v>35.93567478140932</v>
       </c>
       <c r="O23" t="n">
-        <v>9.397283293483596</v>
+        <v>35.93567478140932</v>
       </c>
       <c r="P23" t="n">
-        <v>5.614654870924809</v>
+        <v>32.15304635885036</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.614654870924809</v>
+        <v>32.15304635885036</v>
       </c>
       <c r="R23" t="n">
-        <v>5.614654870924809</v>
+        <v>32.15304635885036</v>
       </c>
       <c r="S23" t="n">
-        <v>5.614654870924809</v>
+        <v>63.04498234996503</v>
       </c>
       <c r="T23" t="n">
-        <v>36.50659086203942</v>
+        <v>67.39852685315424</v>
       </c>
       <c r="U23" t="n">
-        <v>67.39852685315402</v>
+        <v>98.29046284426892</v>
       </c>
       <c r="V23" t="n">
-        <v>98.29046284426863</v>
+        <v>98.29046284426892</v>
       </c>
       <c r="W23" t="n">
-        <v>124.8159029944024</v>
+        <v>124.8159029944027</v>
       </c>
       <c r="X23" t="n">
-        <v>124.8159029944024</v>
+        <v>124.8159029944027</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.29673557157355</v>
+        <v>93.29673557157368</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="C24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="D24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="E24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="F24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="G24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="H24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="I24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="J24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="K24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="L24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="M24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="N24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="O24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="P24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="R24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="S24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="T24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="U24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="V24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="W24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="X24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="C25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="D25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="E25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="F25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="G25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="H25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="I25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="J25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="K25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="L25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="M25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="N25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="O25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="P25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="R25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="S25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="T25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="U25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="V25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="W25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="X25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.78764674559125</v>
+        <v>49.24163839479316</v>
       </c>
       <c r="C26" t="n">
-        <v>78.78764674559125</v>
+        <v>70.36610143550708</v>
       </c>
       <c r="D26" t="n">
-        <v>101.2580374266215</v>
+        <v>101.2580374266216</v>
       </c>
       <c r="E26" t="n">
-        <v>92.73976220568858</v>
+        <v>92.73976220568869</v>
       </c>
       <c r="F26" t="n">
-        <v>61.22059478285979</v>
+        <v>61.22059478285985</v>
       </c>
       <c r="G26" t="n">
-        <v>29.70142736003094</v>
+        <v>29.701427360031</v>
       </c>
       <c r="H26" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="I26" t="n">
-        <v>2.49631805988804</v>
+        <v>12.00165993883744</v>
       </c>
       <c r="J26" t="n">
-        <v>2.49631805988804</v>
+        <v>12.00165993883744</v>
       </c>
       <c r="K26" t="n">
-        <v>13.49284684053157</v>
+        <v>22.99818871948105</v>
       </c>
       <c r="L26" t="n">
-        <v>5.043738790294615</v>
+        <v>14.54908066924428</v>
       </c>
       <c r="M26" t="n">
-        <v>8.935464581334372</v>
+        <v>14.54908066924428</v>
       </c>
       <c r="N26" t="n">
-        <v>8.935464581334372</v>
+        <v>20.49371399349934</v>
       </c>
       <c r="O26" t="n">
-        <v>11.84713958050457</v>
+        <v>23.40538899266955</v>
       </c>
       <c r="P26" t="n">
-        <v>8.064511157945674</v>
+        <v>19.6227605701107</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.76543156270014</v>
+        <v>23.32368097486523</v>
       </c>
       <c r="R26" t="n">
-        <v>11.76543156270014</v>
+        <v>29.06473416432812</v>
       </c>
       <c r="S26" t="n">
-        <v>42.65736755381472</v>
+        <v>59.95667015544267</v>
       </c>
       <c r="T26" t="n">
-        <v>73.54930354492922</v>
+        <v>59.95667015544267</v>
       </c>
       <c r="U26" t="n">
-        <v>73.54930354492922</v>
+        <v>59.95667015544267</v>
       </c>
       <c r="V26" t="n">
-        <v>98.29046284426812</v>
+        <v>90.84860614655722</v>
       </c>
       <c r="W26" t="n">
-        <v>124.815902994402</v>
+        <v>95.26989464360402</v>
       </c>
       <c r="X26" t="n">
-        <v>124.815902994402</v>
+        <v>95.26989464360402</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.29673557157321</v>
+        <v>63.75072722077518</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="C27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="D27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="E27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="F27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="G27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="H27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="I27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="J27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="K27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="L27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="M27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="N27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="O27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="P27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="R27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="S27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="T27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="U27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="V27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="W27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="X27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="C28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="D28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="E28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="F28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="G28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="H28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="I28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="J28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="K28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="L28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="M28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="N28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="O28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="P28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="R28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="S28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="T28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="U28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="V28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="W28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="X28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888044</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.78764674559136</v>
+        <v>52.15852838003697</v>
       </c>
       <c r="C29" t="n">
-        <v>99.91210978630534</v>
+        <v>73.28299142075083</v>
       </c>
       <c r="D29" t="n">
-        <v>101.258037426622</v>
+        <v>101.2580374266219</v>
       </c>
       <c r="E29" t="n">
-        <v>92.73976220568915</v>
+        <v>92.73976220568893</v>
       </c>
       <c r="F29" t="n">
-        <v>61.22059478286036</v>
+        <v>61.22059478286003</v>
       </c>
       <c r="G29" t="n">
-        <v>29.70142736003088</v>
+        <v>29.70142736003113</v>
       </c>
       <c r="H29" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="I29" t="n">
-        <v>2.49631805988804</v>
+        <v>12.00165993883727</v>
       </c>
       <c r="J29" t="n">
-        <v>33.38825405100253</v>
+        <v>42.89359592995208</v>
       </c>
       <c r="K29" t="n">
-        <v>44.38478283164601</v>
+        <v>42.89359592995208</v>
       </c>
       <c r="L29" t="n">
-        <v>35.93567478140902</v>
+        <v>34.4444878797151</v>
       </c>
       <c r="M29" t="n">
-        <v>39.82740057244889</v>
+        <v>34.4444878797151</v>
       </c>
       <c r="N29" t="n">
-        <v>45.77203389670345</v>
+        <v>34.4444878797151</v>
       </c>
       <c r="O29" t="n">
-        <v>45.77203389670345</v>
+        <v>34.4444878797151</v>
       </c>
       <c r="P29" t="n">
-        <v>41.98940547414458</v>
+        <v>30.6618594571562</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.98940547414458</v>
+        <v>30.6618594571562</v>
       </c>
       <c r="R29" t="n">
-        <v>41.98940547414458</v>
+        <v>36.40291264661904</v>
       </c>
       <c r="S29" t="n">
-        <v>41.98940547414458</v>
+        <v>36.40291264661904</v>
       </c>
       <c r="T29" t="n">
-        <v>63.03203101217301</v>
+        <v>67.29484863773365</v>
       </c>
       <c r="U29" t="n">
-        <v>93.9239670032875</v>
+        <v>67.29484863773365</v>
       </c>
       <c r="V29" t="n">
-        <v>124.815902994402</v>
+        <v>98.18678462884795</v>
       </c>
       <c r="W29" t="n">
-        <v>124.815902994402</v>
+        <v>98.18678462884795</v>
       </c>
       <c r="X29" t="n">
-        <v>124.815902994402</v>
+        <v>98.18678462884795</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.29673557157327</v>
+        <v>66.66761720601905</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="C30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="D30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="E30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="F30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="G30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="H30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="I30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="J30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="K30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="L30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="M30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="N30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="O30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="P30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="R30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="S30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="T30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="U30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="V30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="W30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="X30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="C31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="D31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="E31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="F31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="G31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="H31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="I31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="J31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="K31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="L31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="M31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="N31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="O31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="P31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="R31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="S31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="T31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="U31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="V31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="W31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="X31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.49631805988804</v>
+        <v>2.496318059888049</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.79141791759838</v>
+        <v>118.8078338866983</v>
       </c>
       <c r="C32" t="n">
-        <v>103.1390733948633</v>
+        <v>141.1554893639632</v>
       </c>
       <c r="D32" t="n">
-        <v>141.1554893639629</v>
+        <v>141.1554893639632</v>
       </c>
       <c r="E32" t="n">
         <v>133.8852423407153</v>
@@ -6695,55 +6695,55 @@
         <v>4.111153506189867</v>
       </c>
       <c r="I32" t="n">
-        <v>14.83968782169011</v>
+        <v>14.83968782169014</v>
       </c>
       <c r="J32" t="n">
-        <v>65.71521246078972</v>
+        <v>46.21658485485075</v>
       </c>
       <c r="K32" t="n">
-        <v>77.93493367798422</v>
+        <v>58.43630607204537</v>
       </c>
       <c r="L32" t="n">
-        <v>70.73385382543204</v>
+        <v>51.23522621949344</v>
       </c>
       <c r="M32" t="n">
-        <v>70.73385382543204</v>
+        <v>51.23522621949344</v>
       </c>
       <c r="N32" t="n">
-        <v>70.73385382543204</v>
+        <v>51.23522621949344</v>
       </c>
       <c r="O32" t="n">
-        <v>70.73385382543204</v>
+        <v>51.23522621949344</v>
       </c>
       <c r="P32" t="n">
-        <v>68.19925360055801</v>
+        <v>48.70062599461956</v>
       </c>
       <c r="Q32" t="n">
-        <v>68.19925360055801</v>
+        <v>53.62473883592504</v>
       </c>
       <c r="R32" t="n">
-        <v>73.44809313193964</v>
+        <v>60.58898446193889</v>
       </c>
       <c r="S32" t="n">
-        <v>73.44809313193964</v>
+        <v>111.4645091010385</v>
       </c>
       <c r="T32" t="n">
-        <v>73.44809313193964</v>
+        <v>162.3400337401393</v>
       </c>
       <c r="U32" t="n">
-        <v>124.3236177710393</v>
+        <v>162.3400337401393</v>
       </c>
       <c r="V32" t="n">
-        <v>124.3236177710393</v>
+        <v>162.3400337401393</v>
       </c>
       <c r="W32" t="n">
-        <v>124.3236177710393</v>
+        <v>162.3400337401393</v>
       </c>
       <c r="X32" t="n">
-        <v>124.3236177710393</v>
+        <v>162.3400337401393</v>
       </c>
       <c r="Y32" t="n">
-        <v>94.05247854589544</v>
+        <v>132.0688945149954</v>
       </c>
     </row>
     <row r="33">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>107.2152230448271</v>
+        <v>107.2152230448276</v>
       </c>
       <c r="C35" t="n">
-        <v>129.1962265400066</v>
+        <v>129.1962265400069</v>
       </c>
       <c r="D35" t="n">
-        <v>129.1962265400066</v>
+        <v>129.1962265400069</v>
       </c>
       <c r="E35" t="n">
-        <v>121.5518830142737</v>
+        <v>121.5518830142739</v>
       </c>
       <c r="F35" t="n">
-        <v>75.75508356769291</v>
+        <v>75.75508356769308</v>
       </c>
       <c r="G35" t="n">
-        <v>29.95828412111213</v>
+        <v>29.95828412111225</v>
       </c>
       <c r="H35" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="I35" t="n">
-        <v>3.627106516169197</v>
+        <v>13.9889888495839</v>
       </c>
       <c r="J35" t="n">
-        <v>48.51254965376301</v>
+        <v>53.63384595527639</v>
       </c>
       <c r="K35" t="n">
-        <v>48.51254965376301</v>
+        <v>53.63384595527639</v>
       </c>
       <c r="L35" t="n">
-        <v>40.93737329872596</v>
+        <v>46.05866960023934</v>
       </c>
       <c r="M35" t="n">
-        <v>45.68563954423126</v>
+        <v>46.05866960023934</v>
       </c>
       <c r="N35" t="n">
-        <v>45.68563954423126</v>
+        <v>46.05866960023934</v>
       </c>
       <c r="O35" t="n">
-        <v>45.68563954423126</v>
+        <v>46.05866960023934</v>
       </c>
       <c r="P35" t="n">
-        <v>42.77694281687229</v>
+        <v>43.14997287288037</v>
       </c>
       <c r="Q35" t="n">
-        <v>42.77694281687229</v>
+        <v>43.14997287288037</v>
       </c>
       <c r="R35" t="n">
-        <v>49.37453646080063</v>
+        <v>43.14997287288037</v>
       </c>
       <c r="S35" t="n">
-        <v>94.25997959839444</v>
+        <v>43.14997287288037</v>
       </c>
       <c r="T35" t="n">
-        <v>94.25997959839444</v>
+        <v>43.14997287288037</v>
       </c>
       <c r="U35" t="n">
-        <v>120.9434686389055</v>
+        <v>88.03541601047425</v>
       </c>
       <c r="V35" t="n">
-        <v>120.9434686389055</v>
+        <v>124.1136352986393</v>
       </c>
       <c r="W35" t="n">
-        <v>148.3254492435054</v>
+        <v>151.4956159032386</v>
       </c>
       <c r="X35" t="n">
-        <v>151.4956159032379</v>
+        <v>151.4956159032386</v>
       </c>
       <c r="Y35" t="n">
-        <v>120.8503801756091</v>
+        <v>120.8503801756097</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="C36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="D36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="E36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="F36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="G36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="H36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="I36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="J36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="K36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="L36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="M36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="N36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="O36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="P36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="R36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="S36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="T36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="U36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="V36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="W36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="X36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="C37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="D37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="E37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="F37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="G37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="H37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="I37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="J37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="K37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="L37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="M37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="N37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="O37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="P37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="R37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="S37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="T37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="U37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="V37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="W37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="X37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.627106516169197</v>
+        <v>3.627106516169202</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>90.00522909773478</v>
+        <v>109.810645815245</v>
       </c>
       <c r="C38" t="n">
-        <v>90.00522909773478</v>
+        <v>127.60624683518</v>
       </c>
       <c r="D38" t="n">
-        <v>127.6062468351821</v>
+        <v>127.60624683518</v>
       </c>
       <c r="E38" t="n">
-        <v>119.9121673135643</v>
+        <v>119.9121673135621</v>
       </c>
       <c r="F38" t="n">
-        <v>74.92791677838906</v>
+        <v>74.92791677838791</v>
       </c>
       <c r="G38" t="n">
-        <v>29.94366624321375</v>
+        <v>29.94366624321372</v>
       </c>
       <c r="H38" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="I38" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="J38" t="n">
-        <v>47.65181659191116</v>
+        <v>47.65181659191001</v>
       </c>
       <c r="K38" t="n">
-        <v>59.45613957745333</v>
+        <v>47.65181659191001</v>
       </c>
       <c r="L38" t="n">
-        <v>51.83122722653135</v>
+        <v>40.02690424098809</v>
       </c>
       <c r="M38" t="n">
-        <v>56.53074722246967</v>
+        <v>40.02690424098809</v>
       </c>
       <c r="N38" t="n">
-        <v>63.28317475162328</v>
+        <v>40.02690424098809</v>
       </c>
       <c r="O38" t="n">
-        <v>67.00264395569209</v>
+        <v>40.02690424098809</v>
       </c>
       <c r="P38" t="n">
-        <v>64.04421123244819</v>
+        <v>37.06847151774434</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.55292584210122</v>
+        <v>37.06847151774434</v>
       </c>
       <c r="R38" t="n">
-        <v>75.10177323646269</v>
+        <v>43.61731891210587</v>
       </c>
       <c r="S38" t="n">
-        <v>75.10177323646269</v>
+        <v>43.61731891210587</v>
       </c>
       <c r="T38" t="n">
-        <v>75.10177323646269</v>
+        <v>87.70638286163009</v>
       </c>
       <c r="U38" t="n">
-        <v>98.35562090931558</v>
+        <v>87.70638286163009</v>
       </c>
       <c r="V38" t="n">
-        <v>134.3850939479154</v>
+        <v>123.7358559002277</v>
       </c>
       <c r="W38" t="n">
-        <v>134.3850939479154</v>
+        <v>151.0690902552602</v>
       </c>
       <c r="X38" t="n">
-        <v>134.3850939479154</v>
+        <v>154.1905106654258</v>
       </c>
       <c r="Y38" t="n">
-        <v>103.6901222244017</v>
+        <v>123.495538941912</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="C39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="D39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="E39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="F39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="G39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="H39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="I39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="J39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="K39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="L39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="M39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="N39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="O39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="P39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="R39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="S39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="T39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="U39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="V39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="W39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="X39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="C40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="D40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="E40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="F40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="G40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="H40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="I40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="J40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="K40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="L40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="M40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="N40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="O40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="P40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="R40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="S40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="T40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="U40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="V40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="W40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="X40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.562752642385881</v>
+        <v>3.562752642385796</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.31423825483839</v>
+        <v>94.59629536565157</v>
       </c>
       <c r="C41" t="n">
-        <v>74.31423825483839</v>
+        <v>115.9632694161933</v>
       </c>
       <c r="D41" t="n">
-        <v>109.1681348648976</v>
+        <v>115.9632694161933</v>
       </c>
       <c r="E41" t="n">
-        <v>100.8972946096087</v>
+        <v>107.6924291609045</v>
       </c>
       <c r="F41" t="n">
-        <v>65.33572271892491</v>
+        <v>72.13085727022009</v>
       </c>
       <c r="G41" t="n">
-        <v>29.77415082824105</v>
+        <v>36.56928537953564</v>
       </c>
       <c r="H41" t="n">
-        <v>2.816476493742157</v>
+        <v>9.611611045035893</v>
       </c>
       <c r="I41" t="n">
-        <v>12.56432938251918</v>
+        <v>9.611611045035893</v>
       </c>
       <c r="J41" t="n">
-        <v>47.41822599257812</v>
+        <v>9.611611045035893</v>
       </c>
       <c r="K41" t="n">
-        <v>58.65726578304935</v>
+        <v>11.39915702625168</v>
       </c>
       <c r="L41" t="n">
-        <v>50.45559269845631</v>
+        <v>3.197483941658867</v>
       </c>
       <c r="M41" t="n">
-        <v>54.58982949932373</v>
+        <v>3.197483941658867</v>
       </c>
       <c r="N41" t="n">
-        <v>60.77697383340631</v>
+        <v>3.197483941658867</v>
       </c>
       <c r="O41" t="n">
-        <v>63.93115984240409</v>
+        <v>6.351669950656934</v>
       </c>
       <c r="P41" t="n">
-        <v>60.39596638548918</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.39596638548918</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="R41" t="n">
-        <v>60.39596638548918</v>
+        <v>8.800040693032926</v>
       </c>
       <c r="S41" t="n">
-        <v>82.43759074720617</v>
+        <v>43.65393730309275</v>
       </c>
       <c r="T41" t="n">
-        <v>82.43759074720617</v>
+        <v>78.50783391315258</v>
       </c>
       <c r="U41" t="n">
-        <v>82.43759074720617</v>
+        <v>78.50783391315258</v>
       </c>
       <c r="V41" t="n">
-        <v>117.2914873572654</v>
+        <v>113.3617305232124</v>
       </c>
       <c r="W41" t="n">
-        <v>117.2914873572654</v>
+        <v>140.1296816831741</v>
       </c>
       <c r="X41" t="n">
-        <v>119.84762457236</v>
+        <v>140.1296816831741</v>
       </c>
       <c r="Y41" t="n">
-        <v>88.57589211517634</v>
+        <v>108.8579492259894</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="C42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="D42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="E42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="F42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="G42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="H42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="I42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="J42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="K42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="L42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="M42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="N42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="O42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="P42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="R42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="S42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="T42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="U42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="V42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="W42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="X42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="C43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="D43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="E43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="F43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="G43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="H43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="I43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="J43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="K43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="L43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="M43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="N43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="O43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="P43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="R43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="S43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="T43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="U43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="V43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="W43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="X43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.816476493742157</v>
+        <v>2.816476493742208</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.78764674559103</v>
+        <v>50.47684608694672</v>
       </c>
       <c r="C44" t="n">
-        <v>99.9121097863049</v>
+        <v>71.60130912766053</v>
       </c>
       <c r="D44" t="n">
-        <v>101.2580374266219</v>
+        <v>102.4932451187752</v>
       </c>
       <c r="E44" t="n">
-        <v>92.73976220568888</v>
+        <v>93.97496989784214</v>
       </c>
       <c r="F44" t="n">
-        <v>61.22059478285998</v>
+        <v>62.45580247501319</v>
       </c>
       <c r="G44" t="n">
-        <v>29.70142736003107</v>
+        <v>30.93663505218423</v>
       </c>
       <c r="H44" t="n">
-        <v>2.496318059888049</v>
+        <v>3.73152575204108</v>
       </c>
       <c r="I44" t="n">
-        <v>12.0016599388373</v>
+        <v>3.73152575204108</v>
       </c>
       <c r="J44" t="n">
-        <v>42.89359592995177</v>
+        <v>3.73152575204108</v>
       </c>
       <c r="K44" t="n">
-        <v>42.89359592995177</v>
+        <v>14.72805453268451</v>
       </c>
       <c r="L44" t="n">
-        <v>34.44448787971471</v>
+        <v>6.278946482447125</v>
       </c>
       <c r="M44" t="n">
-        <v>38.33621367075446</v>
+        <v>6.278946482447125</v>
       </c>
       <c r="N44" t="n">
-        <v>44.28084699500943</v>
+        <v>6.278946482447125</v>
       </c>
       <c r="O44" t="n">
-        <v>47.19252199417952</v>
+        <v>6.278946482447125</v>
       </c>
       <c r="P44" t="n">
-        <v>43.4098935716203</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.4098935716203</v>
+        <v>6.19723846464241</v>
       </c>
       <c r="R44" t="n">
-        <v>49.15094676108311</v>
+        <v>6.19723846464241</v>
       </c>
       <c r="S44" t="n">
-        <v>49.15094676108311</v>
+        <v>6.19723846464241</v>
       </c>
       <c r="T44" t="n">
-        <v>80.04288275219771</v>
+        <v>37.08917445575707</v>
       </c>
       <c r="U44" t="n">
-        <v>80.04288275219771</v>
+        <v>67.98111044687174</v>
       </c>
       <c r="V44" t="n">
-        <v>110.9348187433123</v>
+        <v>94.19147613049056</v>
       </c>
       <c r="W44" t="n">
-        <v>122.5022767891355</v>
+        <v>94.19147613049056</v>
       </c>
       <c r="X44" t="n">
-        <v>124.8159029944024</v>
+        <v>96.50510233575743</v>
       </c>
       <c r="Y44" t="n">
-        <v>93.29673557157311</v>
+        <v>64.98593491292885</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="C45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="D45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="E45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="F45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="G45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="H45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="I45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="J45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="K45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="L45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="M45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="N45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="O45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="P45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="R45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="S45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="T45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="U45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="V45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="W45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="X45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="C46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="D46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="E46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="F46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="G46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="H46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="I46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="J46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="K46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="L46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="M46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="N46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="O46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="P46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="R46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="S46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="T46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="U46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="V46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="W46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="X46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.496318059888049</v>
+        <v>2.496318059888054</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.4265256583153</v>
+        <v>12.42652565831547</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.233782510898076</v>
+        <v>6.495620189316911</v>
       </c>
       <c r="F11" t="n">
-        <v>50.68749446367455</v>
+        <v>50.68749446367472</v>
       </c>
       <c r="G11" t="n">
-        <v>80.56280637584238</v>
+        <v>80.56280637584256</v>
       </c>
       <c r="H11" t="n">
-        <v>24.99558592773467</v>
+        <v>27.73374824931628</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>6.427144690327834</v>
+        <v>6.427144690327838</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23297,7 +23297,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.807329858926511</v>
+        <v>1.807329858926536</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.26650346919369</v>
+        <v>29.26650346919386</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.37714162003611</v>
+        <v>13.18112936270462</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.263353438105497</v>
+        <v>6.263353438104329</v>
       </c>
       <c r="F14" t="n">
-        <v>49.63811042539537</v>
+        <v>49.63811042539407</v>
       </c>
       <c r="G14" t="n">
-        <v>79.5134223375632</v>
+        <v>79.51342233756189</v>
       </c>
       <c r="H14" t="n">
-        <v>23.94620188945548</v>
+        <v>23.94620188945418</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>5.377760652048648</v>
+        <v>5.377760652047177</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23534,7 +23534,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7579458206473255</v>
+        <v>0.7579458206458796</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>30.0211071735845</v>
+        <v>28.21711943091321</v>
       </c>
     </row>
     <row r="15">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>33.73712390451586</v>
+        <v>33.73712390451512</v>
       </c>
       <c r="G20" t="n">
-        <v>63.61243581668369</v>
+        <v>63.61243581668295</v>
       </c>
       <c r="H20" t="n">
-        <v>8.045215368575974</v>
+        <v>8.045215368575235</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.316132910035</v>
+        <v>12.31613291003426</v>
       </c>
     </row>
     <row r="21">
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>21.4209909944808</v>
+        <v>21.42099099448086</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29630290664863</v>
+        <v>51.29630290664869</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.420942912718431</v>
+        <v>6.42094291271848</v>
       </c>
       <c r="G35" t="n">
-        <v>36.29625482488626</v>
+        <v>36.29625482488631</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7.274604970935968</v>
+        <v>7.274604970937091</v>
       </c>
       <c r="G38" t="n">
-        <v>37.1499168831038</v>
+        <v>37.14991688310492</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25637,10 +25637,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>17.17404995531683</v>
+        <v>17.17404995531608</v>
       </c>
       <c r="G41" t="n">
-        <v>47.04936186748466</v>
+        <v>47.04936186748391</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1375684.737905452</v>
+        <v>1375684.737905453</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348946.9335415892</v>
+        <v>348946.9335415893</v>
       </c>
       <c r="C2" t="n">
         <v>348946.9335415893</v>
@@ -26320,40 +26320,40 @@
         <v>348946.9335415893</v>
       </c>
       <c r="E2" t="n">
-        <v>343684.0365457604</v>
+        <v>343684.0365457603</v>
       </c>
       <c r="F2" t="n">
-        <v>343921.1844763627</v>
+        <v>343921.184476363</v>
       </c>
       <c r="G2" t="n">
-        <v>345901.7172116595</v>
+        <v>345901.7172116596</v>
       </c>
       <c r="H2" t="n">
-        <v>346405.8544874095</v>
+        <v>346405.8544874096</v>
       </c>
       <c r="I2" t="n">
+        <v>347659.3765761987</v>
+      </c>
+      <c r="J2" t="n">
         <v>347659.3765761988</v>
-      </c>
-      <c r="J2" t="n">
-        <v>347659.3765761989</v>
       </c>
       <c r="K2" t="n">
         <v>347659.3765761988</v>
       </c>
       <c r="L2" t="n">
-        <v>348852.9541944112</v>
+        <v>348852.9541944111</v>
       </c>
       <c r="M2" t="n">
-        <v>348495.1792553146</v>
+        <v>348495.1792553145</v>
       </c>
       <c r="N2" t="n">
-        <v>348447.6132054308</v>
+        <v>348447.6132054307</v>
       </c>
       <c r="O2" t="n">
-        <v>347896.0161309009</v>
+        <v>347896.0161309011</v>
       </c>
       <c r="P2" t="n">
-        <v>347659.3765761988</v>
+        <v>347659.3765761987</v>
       </c>
     </row>
     <row r="3">
@@ -26372,34 +26372,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>312755.705447456</v>
+        <v>312755.7054474561</v>
       </c>
       <c r="F3" t="n">
-        <v>426.4567182856689</v>
+        <v>426.4567182862664</v>
       </c>
       <c r="G3" t="n">
-        <v>4195.740537104741</v>
+        <v>4195.740537104242</v>
       </c>
       <c r="H3" t="n">
-        <v>1497.261918130434</v>
+        <v>1497.261918130683</v>
       </c>
       <c r="I3" t="n">
-        <v>3968.139418258615</v>
+        <v>3968.139418258358</v>
       </c>
       <c r="J3" t="n">
-        <v>271754.0163456365</v>
+        <v>271754.0163456363</v>
       </c>
       <c r="K3" t="n">
-        <v>195.968492790189</v>
+        <v>195.9684927903709</v>
       </c>
       <c r="L3" t="n">
-        <v>7736.144116408324</v>
+        <v>7736.144116408204</v>
       </c>
       <c r="M3" t="n">
         <v>121.2071521656071</v>
       </c>
       <c r="N3" t="n">
-        <v>998.6892834242553</v>
+        <v>998.6892834242099</v>
       </c>
       <c r="O3" t="n">
         <v>271297.221844569</v>
@@ -26424,37 +26424,37 @@
         <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>543505.2814159456</v>
+        <v>543505.2814159454</v>
       </c>
       <c r="F4" t="n">
-        <v>543897.8986366657</v>
+        <v>543897.8986366661</v>
       </c>
       <c r="G4" t="n">
         <v>547182.097941085</v>
       </c>
       <c r="H4" t="n">
-        <v>548018.76352662</v>
+        <v>548018.7635266201</v>
       </c>
       <c r="I4" t="n">
-        <v>550099.1072005483</v>
+        <v>550099.1072005482</v>
       </c>
       <c r="J4" t="n">
         <v>550099.1072005483</v>
       </c>
       <c r="K4" t="n">
-        <v>550099.1072005484</v>
+        <v>550099.1072005483</v>
       </c>
       <c r="L4" t="n">
-        <v>552079.9671068854</v>
+        <v>552079.9671068853</v>
       </c>
       <c r="M4" t="n">
-        <v>551486.2042702379</v>
+        <v>551486.2042702378</v>
       </c>
       <c r="N4" t="n">
-        <v>551407.2637139807</v>
+        <v>551407.2637139806</v>
       </c>
       <c r="O4" t="n">
-        <v>550491.8339063867</v>
+        <v>550491.8339063869</v>
       </c>
       <c r="P4" t="n">
         <v>550099.1072005483</v>
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29989.02910052525</v>
+        <v>29989.02910052524</v>
       </c>
       <c r="F5" t="n">
-        <v>30058.53163862605</v>
+        <v>30058.53163862613</v>
       </c>
       <c r="G5" t="n">
         <v>30797.93281119599</v>
       </c>
       <c r="H5" t="n">
-        <v>31085.1258456981</v>
+        <v>31085.12584569816</v>
       </c>
       <c r="I5" t="n">
         <v>31864.1405866176</v>
@@ -26494,7 +26494,7 @@
         <v>31864.1405866176</v>
       </c>
       <c r="K5" t="n">
-        <v>31864.14058661761</v>
+        <v>31864.1405866176</v>
       </c>
       <c r="L5" t="n">
         <v>33195.28680353265</v>
@@ -26503,10 +26503,10 @@
         <v>32796.2756714382</v>
       </c>
       <c r="N5" t="n">
-        <v>32743.22728447922</v>
+        <v>32743.22728447915</v>
       </c>
       <c r="O5" t="n">
-        <v>32128.05459037219</v>
+        <v>32128.05459037224</v>
       </c>
       <c r="P5" t="n">
         <v>31864.1405866176</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-253730.4401327469</v>
+        <v>-253735.7140387661</v>
       </c>
       <c r="C6" t="n">
-        <v>-253730.4401327469</v>
+        <v>-253735.7140387661</v>
       </c>
       <c r="D6" t="n">
-        <v>-253730.4401327469</v>
+        <v>-253735.7140387661</v>
       </c>
       <c r="E6" t="n">
-        <v>-542565.9794181664</v>
+        <v>-542608.8454455845</v>
       </c>
       <c r="F6" t="n">
-        <v>-230461.7025172147</v>
+        <v>-230502.8746308435</v>
       </c>
       <c r="G6" t="n">
-        <v>-236274.0540777262</v>
+        <v>-236301.0795289587</v>
       </c>
       <c r="H6" t="n">
-        <v>-234195.296803039</v>
+        <v>-234218.7212737313</v>
       </c>
       <c r="I6" t="n">
-        <v>-238272.0106292257</v>
+        <v>-238286.4813707117</v>
       </c>
       <c r="J6" t="n">
-        <v>-506057.8875566034</v>
+        <v>-506072.3582980898</v>
       </c>
       <c r="K6" t="n">
-        <v>-234499.8397037573</v>
+        <v>-234514.3104452437</v>
       </c>
       <c r="L6" t="n">
-        <v>-244158.4438324152</v>
+        <v>-244164.3890194855</v>
       </c>
       <c r="M6" t="n">
-        <v>-235908.5078385271</v>
+        <v>-235917.0085608769</v>
       </c>
       <c r="N6" t="n">
-        <v>-236701.5670764533</v>
+        <v>-236710.4075563022</v>
       </c>
       <c r="O6" t="n">
-        <v>-506021.094210427</v>
+        <v>-506033.8746693798</v>
       </c>
       <c r="P6" t="n">
-        <v>-234303.8712109671</v>
+        <v>-234318.3419524535</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
       <c r="F2" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="G2" t="n">
         <v>341.9861708100235</v>
@@ -26704,28 +26704,28 @@
         <v>342.5080352876906</v>
       </c>
       <c r="I2" t="n">
+        <v>343.8056355278969</v>
+      </c>
+      <c r="J2" t="n">
         <v>343.805635527897</v>
       </c>
-      <c r="J2" t="n">
-        <v>343.8056355278971</v>
-      </c>
       <c r="K2" t="n">
-        <v>343.8056355278972</v>
+        <v>343.805635527897</v>
       </c>
       <c r="L2" t="n">
         <v>345.0411834436051</v>
       </c>
       <c r="M2" t="n">
-        <v>344.6708279061451</v>
+        <v>344.670827906145</v>
       </c>
       <c r="N2" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702189</v>
       </c>
       <c r="O2" t="n">
-        <v>344.0505961438847</v>
+        <v>344.0505961438848</v>
       </c>
       <c r="P2" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
     </row>
     <row r="3">
@@ -26744,37 +26744,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.78637100494984</v>
+        <v>48.78637100495009</v>
       </c>
       <c r="F3" t="n">
-        <v>48.78637100494984</v>
+        <v>48.78637100495009</v>
       </c>
       <c r="G3" t="n">
-        <v>48.78637100494984</v>
+        <v>48.78637100495009</v>
       </c>
       <c r="H3" t="n">
-        <v>48.78637100494984</v>
+        <v>48.78637100495009</v>
       </c>
       <c r="I3" t="n">
-        <v>48.78637100494984</v>
+        <v>48.78637100495009</v>
       </c>
       <c r="J3" t="n">
-        <v>48.78637100494996</v>
+        <v>48.78637100495009</v>
       </c>
       <c r="K3" t="n">
-        <v>48.78637100494984</v>
+        <v>48.78637100495009</v>
       </c>
       <c r="L3" t="n">
-        <v>48.78637100494984</v>
+        <v>48.78637100495009</v>
       </c>
       <c r="M3" t="n">
-        <v>48.78637100494984</v>
+        <v>48.78637100495007</v>
       </c>
       <c r="N3" t="n">
-        <v>48.78637100494984</v>
+        <v>48.78637100495007</v>
       </c>
       <c r="O3" t="n">
-        <v>48.78637100494984</v>
+        <v>48.78637100495007</v>
       </c>
       <c r="P3" t="n">
         <v>48.78637100494996</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="F4" t="n">
-        <v>6.855010797549896</v>
+        <v>6.855010797550969</v>
       </c>
       <c r="G4" t="n">
-        <v>16.18346265559569</v>
+        <v>16.18346265559575</v>
       </c>
       <c r="H4" t="n">
-        <v>20.18544307877202</v>
+        <v>20.1854430787727</v>
       </c>
       <c r="I4" t="n">
+        <v>31.20397574860067</v>
+      </c>
+      <c r="J4" t="n">
+        <v>31.20397574860056</v>
+      </c>
+      <c r="K4" t="n">
         <v>31.20397574860061</v>
-      </c>
-      <c r="J4" t="n">
-        <v>31.2039757486005</v>
-      </c>
-      <c r="K4" t="n">
-        <v>31.2039757486005</v>
       </c>
       <c r="L4" t="n">
         <v>51.38941882737333</v>
       </c>
       <c r="M4" t="n">
-        <v>45.33883145211496</v>
+        <v>45.33883145211502</v>
       </c>
       <c r="N4" t="n">
-        <v>44.53440802982351</v>
+        <v>44.53440802982244</v>
       </c>
       <c r="O4" t="n">
-        <v>35.20595617177696</v>
+        <v>35.2059561717776</v>
       </c>
       <c r="P4" t="n">
-        <v>31.20397574860061</v>
+        <v>31.20397574860067</v>
       </c>
     </row>
   </sheetData>
@@ -26914,34 +26914,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>339.6925204320453</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2449606159880773</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.048689761990033</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5218644776671795</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.297600240206293</v>
+      </c>
+      <c r="J2" t="n">
         <v>339.6925204320455</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.2449606159877362</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.048689761990317</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.5218644776670658</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.297600240206407</v>
-      </c>
-      <c r="J2" t="n">
-        <v>339.6925204320456</v>
-      </c>
       <c r="K2" t="n">
-        <v>0.2449606159877362</v>
+        <v>0.2449606159879636</v>
       </c>
       <c r="L2" t="n">
-        <v>3.284237677698286</v>
+        <v>3.284237677698172</v>
       </c>
       <c r="M2" t="n">
         <v>0.1515089402070089</v>
       </c>
       <c r="N2" t="n">
-        <v>1.248361604280319</v>
+        <v>1.248361604280262</v>
       </c>
       <c r="O2" t="n">
         <v>339.1215273057113</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.78637100494984</v>
+        <v>48.78637100495009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8044234222914497</v>
+        <v>0.804423422292583</v>
       </c>
       <c r="G4" t="n">
-        <v>9.32845185804581</v>
+        <v>9.328451858044822</v>
       </c>
       <c r="H4" t="n">
-        <v>4.001980423176327</v>
+        <v>4.00198042317691</v>
       </c>
       <c r="I4" t="n">
-        <v>11.01853266982859</v>
+        <v>11.01853266982797</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>20.18544307877283</v>
+        <v>20.18544307877272</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>339.6925204320453</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.2449606159880773</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.048689761990033</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5218644776671795</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.297600240206293</v>
+      </c>
+      <c r="O2" t="n">
         <v>339.6925204320455</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.2449606159877362</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.048689761990317</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5218644776670658</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.297600240206407</v>
-      </c>
-      <c r="O2" t="n">
-        <v>339.6925204320456</v>
-      </c>
       <c r="P2" t="n">
-        <v>0.2449606159877362</v>
+        <v>0.2449606159879636</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8044234222914497</v>
+        <v>0.804423422292583</v>
       </c>
       <c r="O4" t="n">
-        <v>9.32845185804581</v>
+        <v>9.328451858044822</v>
       </c>
       <c r="P4" t="n">
-        <v>4.001980423176327</v>
+        <v>4.00198042317691</v>
       </c>
     </row>
   </sheetData>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
       <c r="C11" t="n">
-        <v>328.5183814478889</v>
+        <v>328.5183814478888</v>
       </c>
       <c r="D11" t="n">
         <v>312.6913506480558</v>
       </c>
       <c r="E11" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
       <c r="F11" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
       <c r="G11" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
       <c r="H11" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
       <c r="I11" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
       <c r="J11" t="n">
-        <v>278.2341448241409</v>
+        <v>280.1257098537995</v>
       </c>
       <c r="K11" t="n">
-        <v>338.7486180742226</v>
+        <v>338.7486180742225</v>
       </c>
       <c r="L11" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
       <c r="M11" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
       <c r="N11" t="n">
-        <v>339.6925204320455</v>
+        <v>337.8009554023869</v>
       </c>
       <c r="O11" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
       <c r="P11" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
       <c r="Q11" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
       <c r="R11" t="n">
         <v>338.006591902177</v>
       </c>
       <c r="S11" t="n">
-        <v>289.4793796928736</v>
+        <v>289.2349115160955</v>
       </c>
       <c r="T11" t="n">
-        <v>225.5056166902763</v>
+        <v>231.5562040655346</v>
       </c>
       <c r="U11" t="n">
-        <v>254.0777834762296</v>
+        <v>254.0777834762295</v>
       </c>
       <c r="V11" t="n">
         <v>314.2787695357828</v>
       </c>
       <c r="W11" t="n">
-        <v>322.8183808373533</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X11" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.6925204320455</v>
+        <v>339.6925204320453</v>
       </c>
     </row>
     <row r="12">
@@ -28193,25 +28193,25 @@
         <v>196.196924297318</v>
       </c>
       <c r="K12" t="n">
-        <v>207.0473588872085</v>
+        <v>207.0473588872084</v>
       </c>
       <c r="L12" t="n">
-        <v>202.3662511366348</v>
+        <v>202.3662511366347</v>
       </c>
       <c r="M12" t="n">
-        <v>204.3792329255821</v>
+        <v>204.379232925582</v>
       </c>
       <c r="N12" t="n">
-        <v>186.1379895484117</v>
+        <v>186.1379895484116</v>
       </c>
       <c r="O12" t="n">
-        <v>206.7517814872645</v>
+        <v>206.7517814872644</v>
       </c>
       <c r="P12" t="n">
-        <v>197.6701005311781</v>
+        <v>197.670100531178</v>
       </c>
       <c r="Q12" t="n">
-        <v>214.0753023074448</v>
+        <v>214.0753023074447</v>
       </c>
       <c r="R12" t="n">
         <v>230.2139121683653</v>
@@ -28281,16 +28281,16 @@
         <v>211.9638514519344</v>
       </c>
       <c r="N13" t="n">
-        <v>194.0263706883593</v>
+        <v>194.0263706883592</v>
       </c>
       <c r="O13" t="n">
-        <v>212.5569488139993</v>
+        <v>212.5569488139992</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1677790413427</v>
+        <v>213.1677790413426</v>
       </c>
       <c r="Q13" t="n">
-        <v>238.8288856261021</v>
+        <v>238.828885626102</v>
       </c>
       <c r="R13" t="n">
         <v>270.8937891275791</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="C14" t="n">
-        <v>329.3228048701803</v>
+        <v>329.3228048701814</v>
       </c>
       <c r="D14" t="n">
-        <v>313.4957740703473</v>
+        <v>313.4957740703484</v>
       </c>
       <c r="E14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="F14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="G14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="H14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="I14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4086468349976</v>
+        <v>284.4086468349986</v>
       </c>
       <c r="K14" t="n">
-        <v>337.6243331286544</v>
+        <v>332.9771816101943</v>
       </c>
       <c r="L14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="M14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="N14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="O14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="P14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="Q14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="R14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="S14" t="n">
-        <v>290.2838031151651</v>
+        <v>290.2838031151662</v>
       </c>
       <c r="T14" t="n">
-        <v>232.3606274878262</v>
+        <v>232.3606274878272</v>
       </c>
       <c r="U14" t="n">
-        <v>248.0271961009711</v>
+        <v>254.8822068985221</v>
       </c>
       <c r="V14" t="n">
-        <v>315.0831929580743</v>
+        <v>312.8753336789845</v>
       </c>
       <c r="W14" t="n">
         <v>317.0122616388729</v>
       </c>
       <c r="X14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.9374810480332</v>
+        <v>339.9374810480334</v>
       </c>
     </row>
     <row r="15">
@@ -28430,25 +28430,25 @@
         <v>196.196924297318</v>
       </c>
       <c r="K15" t="n">
-        <v>207.0473588872085</v>
+        <v>207.0473588872084</v>
       </c>
       <c r="L15" t="n">
-        <v>202.3662511366348</v>
+        <v>202.3662511366347</v>
       </c>
       <c r="M15" t="n">
-        <v>204.3792329255821</v>
+        <v>204.379232925582</v>
       </c>
       <c r="N15" t="n">
-        <v>186.1379895484117</v>
+        <v>186.1379895484116</v>
       </c>
       <c r="O15" t="n">
-        <v>206.7517814872645</v>
+        <v>206.7517814872644</v>
       </c>
       <c r="P15" t="n">
-        <v>197.6701005311781</v>
+        <v>197.670100531178</v>
       </c>
       <c r="Q15" t="n">
-        <v>214.0753023074448</v>
+        <v>214.0753023074447</v>
       </c>
       <c r="R15" t="n">
         <v>230.2139121683653</v>
@@ -28518,16 +28518,16 @@
         <v>211.9638514519344</v>
       </c>
       <c r="N16" t="n">
-        <v>194.0263706883593</v>
+        <v>194.0263706883592</v>
       </c>
       <c r="O16" t="n">
-        <v>212.5569488139993</v>
+        <v>212.5569488139992</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1677790413427</v>
+        <v>213.1677790413426</v>
       </c>
       <c r="Q16" t="n">
-        <v>238.8288856261021</v>
+        <v>238.828885626102</v>
       </c>
       <c r="R16" t="n">
         <v>270.8937891275791</v>
@@ -28564,10 +28564,10 @@
         <v>341.9861708100235</v>
       </c>
       <c r="C17" t="n">
-        <v>338.6512567282261</v>
+        <v>338.6512567282262</v>
       </c>
       <c r="D17" t="n">
-        <v>319.3983154021624</v>
+        <v>322.8242259283932</v>
       </c>
       <c r="E17" t="n">
         <v>341.9861708100235</v>
@@ -28585,22 +28585,22 @@
         <v>341.9861708100235</v>
       </c>
       <c r="J17" t="n">
-        <v>291.7202928554997</v>
+        <v>277.5536360374476</v>
       </c>
       <c r="K17" t="n">
-        <v>332.6980306989642</v>
+        <v>341.9861708100235</v>
       </c>
       <c r="L17" t="n">
         <v>341.9861708100235</v>
       </c>
       <c r="M17" t="n">
-        <v>341.9861708100235</v>
+        <v>339.8745993753315</v>
       </c>
       <c r="N17" t="n">
-        <v>337.800955402387</v>
+        <v>337.8009554023869</v>
       </c>
       <c r="O17" t="n">
-        <v>341.9861708100235</v>
+        <v>340.8645496701493</v>
       </c>
       <c r="P17" t="n">
         <v>341.9861708100235</v>
@@ -28609,22 +28609,22 @@
         <v>341.9861708100235</v>
       </c>
       <c r="R17" t="n">
-        <v>341.9861708100235</v>
+        <v>338.006591902177</v>
       </c>
       <c r="S17" t="n">
-        <v>299.6122549732109</v>
+        <v>299.612254973211</v>
       </c>
       <c r="T17" t="n">
-        <v>241.689079345872</v>
+        <v>225.5056166902763</v>
       </c>
       <c r="U17" t="n">
-        <v>248.0271961009711</v>
+        <v>264.2106587565669</v>
       </c>
       <c r="V17" t="n">
-        <v>308.2281821605244</v>
+        <v>316.8935598236994</v>
       </c>
       <c r="W17" t="n">
-        <v>333.1957242944686</v>
+        <v>333.1957242944687</v>
       </c>
       <c r="X17" t="n">
         <v>341.9861708100235</v>
@@ -28667,25 +28667,25 @@
         <v>196.196924297318</v>
       </c>
       <c r="K18" t="n">
-        <v>207.0473588872085</v>
+        <v>207.0473588872084</v>
       </c>
       <c r="L18" t="n">
-        <v>202.3662511366348</v>
+        <v>202.3662511366347</v>
       </c>
       <c r="M18" t="n">
-        <v>204.3792329255821</v>
+        <v>204.379232925582</v>
       </c>
       <c r="N18" t="n">
-        <v>186.1379895484117</v>
+        <v>186.1379895484116</v>
       </c>
       <c r="O18" t="n">
-        <v>206.7517814872645</v>
+        <v>206.7517814872644</v>
       </c>
       <c r="P18" t="n">
-        <v>197.6701005311781</v>
+        <v>197.670100531178</v>
       </c>
       <c r="Q18" t="n">
-        <v>214.0753023074448</v>
+        <v>214.0753023074447</v>
       </c>
       <c r="R18" t="n">
         <v>230.2139121683653</v>
@@ -28755,16 +28755,16 @@
         <v>211.9638514519344</v>
       </c>
       <c r="N19" t="n">
-        <v>194.0263706883593</v>
+        <v>194.0263706883592</v>
       </c>
       <c r="O19" t="n">
-        <v>212.5569488139993</v>
+        <v>212.5569488139992</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1677790413427</v>
+        <v>213.1677790413426</v>
       </c>
       <c r="Q19" t="n">
-        <v>238.8288856261021</v>
+        <v>238.828885626102</v>
       </c>
       <c r="R19" t="n">
         <v>270.8937891275791</v>
@@ -28804,7 +28804,7 @@
         <v>342.5080352876906</v>
       </c>
       <c r="D20" t="n">
-        <v>326.8262063515695</v>
+        <v>326.8262063515701</v>
       </c>
       <c r="E20" t="n">
         <v>342.5080352876906</v>
@@ -28822,7 +28822,7 @@
         <v>334.2042800946149</v>
       </c>
       <c r="J20" t="n">
-        <v>297.7390791162198</v>
+        <v>277.5536360374476</v>
       </c>
       <c r="K20" t="n">
         <v>342.5080352876906</v>
@@ -28831,37 +28831,37 @@
         <v>342.5080352876906</v>
       </c>
       <c r="M20" t="n">
+        <v>339.8745993753315</v>
+      </c>
+      <c r="N20" t="n">
         <v>342.5080352876906</v>
       </c>
-      <c r="N20" t="n">
-        <v>337.800955402387</v>
-      </c>
       <c r="O20" t="n">
-        <v>340.8645496701495</v>
+        <v>340.8645496701493</v>
       </c>
       <c r="P20" t="n">
         <v>342.5080352876906</v>
       </c>
       <c r="Q20" t="n">
-        <v>342.5080352876906</v>
+        <v>340.0673320887511</v>
       </c>
       <c r="R20" t="n">
-        <v>342.5080352876906</v>
+        <v>338.006591902177</v>
       </c>
       <c r="S20" t="n">
-        <v>283.4287923176152</v>
+        <v>290.3824959078044</v>
       </c>
       <c r="T20" t="n">
-        <v>245.6910597690483</v>
+        <v>245.691059769049</v>
       </c>
       <c r="U20" t="n">
-        <v>268.2126391797431</v>
+        <v>248.0271961009711</v>
       </c>
       <c r="V20" t="n">
-        <v>308.2281821605244</v>
+        <v>328.4136252392971</v>
       </c>
       <c r="W20" t="n">
-        <v>319.0974626175547</v>
+        <v>337.1977047176456</v>
       </c>
       <c r="X20" t="n">
         <v>342.5080352876906</v>
@@ -28904,25 +28904,25 @@
         <v>196.196924297318</v>
       </c>
       <c r="K21" t="n">
-        <v>207.0473588872085</v>
+        <v>207.0473588872084</v>
       </c>
       <c r="L21" t="n">
-        <v>202.3662511366348</v>
+        <v>202.3662511366347</v>
       </c>
       <c r="M21" t="n">
-        <v>204.3792329255821</v>
+        <v>204.379232925582</v>
       </c>
       <c r="N21" t="n">
-        <v>186.1379895484117</v>
+        <v>186.1379895484116</v>
       </c>
       <c r="O21" t="n">
-        <v>206.7517814872645</v>
+        <v>206.7517814872644</v>
       </c>
       <c r="P21" t="n">
-        <v>197.6701005311781</v>
+        <v>197.670100531178</v>
       </c>
       <c r="Q21" t="n">
-        <v>214.0753023074448</v>
+        <v>214.0753023074447</v>
       </c>
       <c r="R21" t="n">
         <v>230.2139121683653</v>
@@ -28992,16 +28992,16 @@
         <v>211.9638514519344</v>
       </c>
       <c r="N22" t="n">
-        <v>194.0263706883593</v>
+        <v>194.0263706883592</v>
       </c>
       <c r="O22" t="n">
-        <v>212.5569488139993</v>
+        <v>212.5569488139992</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1677790413427</v>
+        <v>213.1677790413426</v>
       </c>
       <c r="Q22" t="n">
-        <v>238.8288856261021</v>
+        <v>238.828885626102</v>
       </c>
       <c r="R22" t="n">
         <v>270.8937891275791</v>
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="C23" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="D23" t="n">
-        <v>308.0002861418041</v>
+        <v>308.0002861418043</v>
       </c>
       <c r="E23" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="F23" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="G23" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="H23" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="I23" t="n">
         <v>334.2042800946149</v>
       </c>
       <c r="J23" t="n">
-        <v>287.0540804410617</v>
+        <v>308.7576117860483</v>
       </c>
       <c r="K23" t="n">
-        <v>332.6980306989642</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="L23" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8745993753316</v>
+        <v>339.8745993753315</v>
       </c>
       <c r="N23" t="n">
-        <v>343.805635527897</v>
+        <v>337.8009554023869</v>
       </c>
       <c r="O23" t="n">
-        <v>340.8645496701495</v>
+        <v>340.8645496701493</v>
       </c>
       <c r="P23" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="Q23" t="n">
-        <v>340.0673320887512</v>
+        <v>340.0673320887511</v>
       </c>
       <c r="R23" t="n">
         <v>338.006591902177</v>
       </c>
       <c r="S23" t="n">
-        <v>283.4287923176152</v>
+        <v>314.6327680662159</v>
       </c>
       <c r="T23" t="n">
-        <v>256.7095924388769</v>
+        <v>229.9031363904674</v>
       </c>
       <c r="U23" t="n">
         <v>279.2311718495718</v>
       </c>
       <c r="V23" t="n">
-        <v>339.432157909125</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W23" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="X23" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
     </row>
     <row r="24">
@@ -29141,25 +29141,25 @@
         <v>196.196924297318</v>
       </c>
       <c r="K24" t="n">
-        <v>207.0473588872085</v>
+        <v>207.0473588872084</v>
       </c>
       <c r="L24" t="n">
-        <v>202.3662511366348</v>
+        <v>202.3662511366347</v>
       </c>
       <c r="M24" t="n">
-        <v>204.3792329255821</v>
+        <v>204.379232925582</v>
       </c>
       <c r="N24" t="n">
-        <v>186.1379895484117</v>
+        <v>186.1379895484116</v>
       </c>
       <c r="O24" t="n">
-        <v>206.7517814872645</v>
+        <v>206.7517814872644</v>
       </c>
       <c r="P24" t="n">
-        <v>197.6701005311781</v>
+        <v>197.670100531178</v>
       </c>
       <c r="Q24" t="n">
-        <v>214.0753023074448</v>
+        <v>214.0753023074447</v>
       </c>
       <c r="R24" t="n">
         <v>230.2139121683653</v>
@@ -29229,16 +29229,16 @@
         <v>211.9638514519344</v>
       </c>
       <c r="N25" t="n">
-        <v>194.0263706883593</v>
+        <v>194.0263706883592</v>
       </c>
       <c r="O25" t="n">
-        <v>212.5569488139993</v>
+        <v>212.5569488139992</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1677790413427</v>
+        <v>213.1677790413426</v>
       </c>
       <c r="Q25" t="n">
-        <v>238.8288856261021</v>
+        <v>238.828885626102</v>
       </c>
       <c r="R25" t="n">
         <v>270.8937891275791</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.8056355278971</v>
+        <v>343.805635527897</v>
       </c>
       <c r="C26" t="n">
-        <v>322.4677940726305</v>
+        <v>343.805635527897</v>
       </c>
       <c r="D26" t="n">
-        <v>329.3381275970704</v>
+        <v>337.844739021398</v>
       </c>
       <c r="E26" t="n">
-        <v>343.8056355278971</v>
+        <v>343.805635527897</v>
       </c>
       <c r="F26" t="n">
-        <v>343.8056355278971</v>
+        <v>343.805635527897</v>
       </c>
       <c r="G26" t="n">
-        <v>343.8056355278971</v>
+        <v>343.805635527897</v>
       </c>
       <c r="H26" t="n">
-        <v>343.8056355278971</v>
+        <v>343.805635527897</v>
       </c>
       <c r="I26" t="n">
-        <v>334.2042800946149</v>
+        <v>343.805635527897</v>
       </c>
       <c r="J26" t="n">
-        <v>277.5536360374477</v>
+        <v>277.5536360374476</v>
       </c>
       <c r="K26" t="n">
-        <v>343.8056355278971</v>
+        <v>343.805635527897</v>
       </c>
       <c r="L26" t="n">
-        <v>343.8056355278971</v>
+        <v>343.805635527897</v>
       </c>
       <c r="M26" t="n">
-        <v>343.8056355278971</v>
+        <v>339.8745993753315</v>
       </c>
       <c r="N26" t="n">
-        <v>337.8009554023869</v>
+        <v>343.805635527897</v>
       </c>
       <c r="O26" t="n">
-        <v>343.8056355278971</v>
+        <v>343.805635527897</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8056355278971</v>
+        <v>343.805635527897</v>
       </c>
       <c r="Q26" t="n">
-        <v>343.8056355278971</v>
+        <v>343.805635527897</v>
       </c>
       <c r="R26" t="n">
-        <v>338.006591902177</v>
+        <v>343.805635527897</v>
       </c>
       <c r="S26" t="n">
-        <v>314.6327680662157</v>
+        <v>314.6327680662158</v>
       </c>
       <c r="T26" t="n">
-        <v>256.7095924388768</v>
+        <v>225.5056166902763</v>
       </c>
       <c r="U26" t="n">
         <v>248.0271961009711</v>
       </c>
       <c r="V26" t="n">
-        <v>333.2192521598566</v>
+        <v>339.432157909125</v>
       </c>
       <c r="W26" t="n">
-        <v>343.8056355278971</v>
+        <v>321.4782096156886</v>
       </c>
       <c r="X26" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.8056355278971</v>
+        <v>343.805635527897</v>
       </c>
     </row>
     <row r="27">
@@ -29384,19 +29384,19 @@
         <v>202.3662511366347</v>
       </c>
       <c r="M27" t="n">
-        <v>204.3792329255821</v>
+        <v>204.379232925582</v>
       </c>
       <c r="N27" t="n">
-        <v>186.1379895484117</v>
+        <v>186.1379895484116</v>
       </c>
       <c r="O27" t="n">
-        <v>206.7517814872645</v>
+        <v>206.7517814872644</v>
       </c>
       <c r="P27" t="n">
         <v>197.670100531178</v>
       </c>
       <c r="Q27" t="n">
-        <v>214.0753023074448</v>
+        <v>214.0753023074447</v>
       </c>
       <c r="R27" t="n">
         <v>230.2139121683653</v>
@@ -29466,7 +29466,7 @@
         <v>211.9638514519344</v>
       </c>
       <c r="N28" t="n">
-        <v>194.0263706883593</v>
+        <v>194.0263706883592</v>
       </c>
       <c r="O28" t="n">
         <v>212.5569488139992</v>
@@ -29509,67 +29509,67 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>343.8056355278972</v>
+        <v>343.805635527897</v>
       </c>
       <c r="C29" t="n">
-        <v>343.8056355278972</v>
+        <v>343.805635527897</v>
       </c>
       <c r="D29" t="n">
-        <v>308.0002861418041</v>
+        <v>334.89838550095</v>
       </c>
       <c r="E29" t="n">
-        <v>343.8056355278972</v>
+        <v>343.805635527897</v>
       </c>
       <c r="F29" t="n">
-        <v>343.8056355278972</v>
+        <v>343.805635527897</v>
       </c>
       <c r="G29" t="n">
-        <v>343.8056355278972</v>
+        <v>343.805635527897</v>
       </c>
       <c r="H29" t="n">
-        <v>343.8056355278972</v>
+        <v>343.805635527897</v>
       </c>
       <c r="I29" t="n">
-        <v>334.2042800946149</v>
+        <v>343.805635527897</v>
       </c>
       <c r="J29" t="n">
         <v>308.7576117860482</v>
       </c>
       <c r="K29" t="n">
-        <v>343.8056355278972</v>
+        <v>332.6980306989641</v>
       </c>
       <c r="L29" t="n">
-        <v>343.8056355278972</v>
+        <v>343.805635527897</v>
       </c>
       <c r="M29" t="n">
-        <v>343.8056355278972</v>
+        <v>339.8745993753315</v>
       </c>
       <c r="N29" t="n">
-        <v>343.8056355278972</v>
+        <v>337.8009554023869</v>
       </c>
       <c r="O29" t="n">
-        <v>340.8645496701495</v>
+        <v>340.8645496701493</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8056355278972</v>
+        <v>343.805635527897</v>
       </c>
       <c r="Q29" t="n">
-        <v>340.0673320887512</v>
+        <v>340.0673320887511</v>
       </c>
       <c r="R29" t="n">
-        <v>338.006591902177</v>
+        <v>343.805635527897</v>
       </c>
       <c r="S29" t="n">
         <v>283.4287923176152</v>
       </c>
       <c r="T29" t="n">
-        <v>246.7607940014161</v>
+        <v>256.7095924388769</v>
       </c>
       <c r="U29" t="n">
-        <v>279.2311718495716</v>
+        <v>248.0271961009711</v>
       </c>
       <c r="V29" t="n">
-        <v>339.4321579091249</v>
+        <v>339.432157909125</v>
       </c>
       <c r="W29" t="n">
         <v>317.0122616388729</v>
@@ -29578,7 +29578,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.8056355278972</v>
+        <v>343.805635527897</v>
       </c>
     </row>
     <row r="30">
@@ -29615,25 +29615,25 @@
         <v>196.196924297318</v>
       </c>
       <c r="K30" t="n">
-        <v>207.0473588872085</v>
+        <v>207.0473588872084</v>
       </c>
       <c r="L30" t="n">
-        <v>202.3662511366348</v>
+        <v>202.3662511366347</v>
       </c>
       <c r="M30" t="n">
-        <v>204.3792329255821</v>
+        <v>204.379232925582</v>
       </c>
       <c r="N30" t="n">
-        <v>186.1379895484117</v>
+        <v>186.1379895484116</v>
       </c>
       <c r="O30" t="n">
-        <v>206.7517814872645</v>
+        <v>206.7517814872644</v>
       </c>
       <c r="P30" t="n">
-        <v>197.6701005311781</v>
+        <v>197.670100531178</v>
       </c>
       <c r="Q30" t="n">
-        <v>214.0753023074448</v>
+        <v>214.0753023074447</v>
       </c>
       <c r="R30" t="n">
         <v>230.2139121683653</v>
@@ -29703,16 +29703,16 @@
         <v>211.9638514519344</v>
       </c>
       <c r="N31" t="n">
-        <v>194.0263706883593</v>
+        <v>194.0263706883592</v>
       </c>
       <c r="O31" t="n">
-        <v>212.5569488139993</v>
+        <v>212.5569488139992</v>
       </c>
       <c r="P31" t="n">
-        <v>213.1677790413427</v>
+        <v>213.1677790413426</v>
       </c>
       <c r="Q31" t="n">
-        <v>238.8288856261021</v>
+        <v>238.828885626102</v>
       </c>
       <c r="R31" t="n">
         <v>270.8937891275791</v>
@@ -29752,7 +29752,7 @@
         <v>345.0411834436051</v>
       </c>
       <c r="D32" t="n">
-        <v>345.0411834436051</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E32" t="n">
         <v>345.0411834436051</v>
@@ -29770,7 +29770,7 @@
         <v>345.0411834436051</v>
       </c>
       <c r="J32" t="n">
-        <v>328.9430548648211</v>
+        <v>309.2474714244785</v>
       </c>
       <c r="K32" t="n">
         <v>345.0411834436051</v>
@@ -29779,31 +29779,31 @@
         <v>345.0411834436051</v>
       </c>
       <c r="M32" t="n">
-        <v>339.8745993753316</v>
+        <v>339.8745993753315</v>
       </c>
       <c r="N32" t="n">
-        <v>337.800955402387</v>
+        <v>337.8009554023869</v>
       </c>
       <c r="O32" t="n">
-        <v>340.8645496701495</v>
+        <v>340.8645496701493</v>
       </c>
       <c r="P32" t="n">
         <v>345.0411834436051</v>
       </c>
       <c r="Q32" t="n">
-        <v>340.0673320887512</v>
+        <v>345.0411834436051</v>
       </c>
       <c r="R32" t="n">
-        <v>343.3084500146837</v>
+        <v>345.0411834436051</v>
       </c>
       <c r="S32" t="n">
-        <v>283.4287923176152</v>
+        <v>334.8182111449885</v>
       </c>
       <c r="T32" t="n">
-        <v>225.5056166902763</v>
+        <v>276.8950355176496</v>
       </c>
       <c r="U32" t="n">
-        <v>299.4166149283444</v>
+        <v>248.0271961009711</v>
       </c>
       <c r="V32" t="n">
         <v>308.2281821605244</v>
@@ -29852,25 +29852,25 @@
         <v>196.196924297318</v>
       </c>
       <c r="K33" t="n">
-        <v>207.0473588872085</v>
+        <v>207.0473588872084</v>
       </c>
       <c r="L33" t="n">
-        <v>202.3662511366348</v>
+        <v>202.3662511366347</v>
       </c>
       <c r="M33" t="n">
-        <v>204.3792329255821</v>
+        <v>204.379232925582</v>
       </c>
       <c r="N33" t="n">
-        <v>186.1379895484117</v>
+        <v>186.1379895484116</v>
       </c>
       <c r="O33" t="n">
-        <v>206.7517814872645</v>
+        <v>206.7517814872644</v>
       </c>
       <c r="P33" t="n">
-        <v>197.6701005311781</v>
+        <v>197.670100531178</v>
       </c>
       <c r="Q33" t="n">
-        <v>214.0753023074448</v>
+        <v>214.0753023074447</v>
       </c>
       <c r="R33" t="n">
         <v>230.2139121683653</v>
@@ -29940,16 +29940,16 @@
         <v>211.9638514519344</v>
       </c>
       <c r="N34" t="n">
-        <v>194.0263706883593</v>
+        <v>194.0263706883592</v>
       </c>
       <c r="O34" t="n">
-        <v>212.5569488139993</v>
+        <v>212.5569488139992</v>
       </c>
       <c r="P34" t="n">
-        <v>213.1677790413427</v>
+        <v>213.1677790413426</v>
       </c>
       <c r="Q34" t="n">
-        <v>238.8288856261021</v>
+        <v>238.828885626102</v>
       </c>
       <c r="R34" t="n">
         <v>270.8937891275791</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>344.6708279061451</v>
+        <v>344.670827906145</v>
       </c>
       <c r="C35" t="n">
-        <v>344.6708279061451</v>
+        <v>344.670827906145</v>
       </c>
       <c r="D35" t="n">
         <v>306.6407632727974</v>
       </c>
       <c r="E35" t="n">
-        <v>344.6708279061451</v>
+        <v>344.670827906145</v>
       </c>
       <c r="F35" t="n">
-        <v>344.6708279061451</v>
+        <v>344.670827906145</v>
       </c>
       <c r="G35" t="n">
-        <v>344.6708279061451</v>
+        <v>344.670827906145</v>
       </c>
       <c r="H35" t="n">
-        <v>344.6708279061451</v>
+        <v>344.670827906145</v>
       </c>
       <c r="I35" t="n">
-        <v>334.2042800946149</v>
+        <v>344.670827906145</v>
       </c>
       <c r="J35" t="n">
-        <v>322.8924674895627</v>
+        <v>317.5989462452177</v>
       </c>
       <c r="K35" t="n">
-        <v>332.6980306989642</v>
+        <v>332.6980306989641</v>
       </c>
       <c r="L35" t="n">
-        <v>344.6708279061451</v>
+        <v>344.670827906145</v>
       </c>
       <c r="M35" t="n">
-        <v>344.6708279061451</v>
+        <v>339.8745993753315</v>
       </c>
       <c r="N35" t="n">
-        <v>337.800955402387</v>
+        <v>337.8009554023869</v>
       </c>
       <c r="O35" t="n">
-        <v>340.8645496701495</v>
+        <v>340.8645496701494</v>
       </c>
       <c r="P35" t="n">
-        <v>344.6708279061451</v>
+        <v>344.670827906145</v>
       </c>
       <c r="Q35" t="n">
-        <v>340.0673320887512</v>
+        <v>340.0673320887511</v>
       </c>
       <c r="R35" t="n">
-        <v>344.6708279061451</v>
+        <v>338.006591902177</v>
       </c>
       <c r="S35" t="n">
-        <v>328.7676237697302</v>
+        <v>283.4287923176152</v>
       </c>
       <c r="T35" t="n">
         <v>225.5056166902763</v>
       </c>
       <c r="U35" t="n">
-        <v>274.9802153338105</v>
+        <v>293.3660275530862</v>
       </c>
       <c r="V35" t="n">
-        <v>308.2281821605244</v>
+        <v>344.670827906145</v>
       </c>
       <c r="W35" t="n">
-        <v>344.6708279061451</v>
+        <v>344.670827906145</v>
       </c>
       <c r="X35" t="n">
-        <v>344.6708279061451</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y35" t="n">
-        <v>344.6708279061451</v>
+        <v>344.670827906145</v>
       </c>
     </row>
     <row r="36">
@@ -30089,25 +30089,25 @@
         <v>196.196924297318</v>
       </c>
       <c r="K36" t="n">
-        <v>207.0473588872085</v>
+        <v>207.0473588872084</v>
       </c>
       <c r="L36" t="n">
-        <v>202.3662511366348</v>
+        <v>202.3662511366347</v>
       </c>
       <c r="M36" t="n">
-        <v>204.3792329255821</v>
+        <v>204.379232925582</v>
       </c>
       <c r="N36" t="n">
-        <v>186.1379895484117</v>
+        <v>186.1379895484116</v>
       </c>
       <c r="O36" t="n">
-        <v>206.7517814872645</v>
+        <v>206.7517814872644</v>
       </c>
       <c r="P36" t="n">
-        <v>197.6701005311781</v>
+        <v>197.670100531178</v>
       </c>
       <c r="Q36" t="n">
-        <v>214.0753023074448</v>
+        <v>214.0753023074447</v>
       </c>
       <c r="R36" t="n">
         <v>230.2139121683653</v>
@@ -30180,13 +30180,13 @@
         <v>194.0263706883593</v>
       </c>
       <c r="O37" t="n">
-        <v>212.5569488139993</v>
+        <v>212.5569488139992</v>
       </c>
       <c r="P37" t="n">
-        <v>213.1677790413427</v>
+        <v>213.1677790413426</v>
       </c>
       <c r="Q37" t="n">
-        <v>238.8288856261021</v>
+        <v>238.828885626102</v>
       </c>
       <c r="R37" t="n">
         <v>270.8937891275791</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702189</v>
       </c>
       <c r="C38" t="n">
-        <v>322.4677940726305</v>
+        <v>340.4431486382215</v>
       </c>
       <c r="D38" t="n">
-        <v>344.621589270219</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702189</v>
       </c>
       <c r="F38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702189</v>
       </c>
       <c r="G38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702189</v>
       </c>
       <c r="H38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702189</v>
       </c>
       <c r="I38" t="n">
         <v>334.2042800946149</v>
       </c>
       <c r="J38" t="n">
-        <v>322.0880440672713</v>
+        <v>322.0880440672701</v>
       </c>
       <c r="K38" t="n">
-        <v>344.621589270219</v>
+        <v>332.6980306989641</v>
       </c>
       <c r="L38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702189</v>
       </c>
       <c r="M38" t="n">
-        <v>344.621589270219</v>
+        <v>339.8745993753315</v>
       </c>
       <c r="N38" t="n">
-        <v>344.621589270219</v>
+        <v>337.8009554023869</v>
       </c>
       <c r="O38" t="n">
-        <v>344.621589270219</v>
+        <v>340.8645496701494</v>
       </c>
       <c r="P38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702189</v>
       </c>
       <c r="Q38" t="n">
-        <v>344.621589270219</v>
+        <v>340.0673320887511</v>
       </c>
       <c r="R38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702189</v>
       </c>
       <c r="S38" t="n">
         <v>283.4287923176152</v>
       </c>
       <c r="T38" t="n">
-        <v>225.5056166902763</v>
+        <v>270.0400247200987</v>
       </c>
       <c r="U38" t="n">
-        <v>271.5159311240548</v>
+        <v>248.0271961009711</v>
       </c>
       <c r="V38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702189</v>
       </c>
       <c r="W38" t="n">
-        <v>317.0122616388729</v>
+        <v>344.6215892702189</v>
       </c>
       <c r="X38" t="n">
-        <v>341.4686393609607</v>
+        <v>344.6215892702189</v>
       </c>
       <c r="Y38" t="n">
-        <v>344.621589270219</v>
+        <v>344.6215892702189</v>
       </c>
     </row>
     <row r="39">
@@ -30326,25 +30326,25 @@
         <v>196.196924297318</v>
       </c>
       <c r="K39" t="n">
-        <v>207.0473588872085</v>
+        <v>207.0473588872084</v>
       </c>
       <c r="L39" t="n">
-        <v>202.3662511366348</v>
+        <v>202.3662511366347</v>
       </c>
       <c r="M39" t="n">
-        <v>204.3792329255821</v>
+        <v>204.379232925582</v>
       </c>
       <c r="N39" t="n">
-        <v>186.1379895484117</v>
+        <v>186.1379895484116</v>
       </c>
       <c r="O39" t="n">
-        <v>206.7517814872645</v>
+        <v>206.7517814872644</v>
       </c>
       <c r="P39" t="n">
-        <v>197.6701005311781</v>
+        <v>197.670100531178</v>
       </c>
       <c r="Q39" t="n">
-        <v>214.0753023074448</v>
+        <v>214.0753023074447</v>
       </c>
       <c r="R39" t="n">
         <v>230.2139121683653</v>
@@ -30417,13 +30417,13 @@
         <v>194.0263706883593</v>
       </c>
       <c r="O40" t="n">
-        <v>212.5569488139993</v>
+        <v>212.5569488139992</v>
       </c>
       <c r="P40" t="n">
-        <v>213.1677790413427</v>
+        <v>213.1677790413426</v>
       </c>
       <c r="Q40" t="n">
-        <v>238.8288856261021</v>
+        <v>238.828885626102</v>
       </c>
       <c r="R40" t="n">
         <v>270.8937891275791</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>344.0505961438847</v>
+        <v>344.0505961438848</v>
       </c>
       <c r="C41" t="n">
-        <v>322.4677940726305</v>
+        <v>344.0505961438848</v>
       </c>
       <c r="D41" t="n">
-        <v>341.8467194445744</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E41" t="n">
-        <v>344.0505961438847</v>
+        <v>344.0505961438848</v>
       </c>
       <c r="F41" t="n">
-        <v>344.0505961438847</v>
+        <v>344.0505961438848</v>
       </c>
       <c r="G41" t="n">
-        <v>344.0505961438847</v>
+        <v>344.0505961438848</v>
       </c>
       <c r="H41" t="n">
-        <v>344.0505961438847</v>
+        <v>344.0505961438848</v>
       </c>
       <c r="I41" t="n">
-        <v>344.0505961438847</v>
+        <v>334.2042800946149</v>
       </c>
       <c r="J41" t="n">
-        <v>312.7595922092247</v>
+        <v>277.5536360374476</v>
       </c>
       <c r="K41" t="n">
-        <v>344.0505961438847</v>
+        <v>334.5036327001922</v>
       </c>
       <c r="L41" t="n">
-        <v>344.0505961438847</v>
+        <v>344.0505961438848</v>
       </c>
       <c r="M41" t="n">
-        <v>344.0505961438847</v>
+        <v>339.8745993753315</v>
       </c>
       <c r="N41" t="n">
-        <v>344.0505961438847</v>
+        <v>337.8009554023869</v>
       </c>
       <c r="O41" t="n">
-        <v>344.0505961438847</v>
+        <v>344.0505961438848</v>
       </c>
       <c r="P41" t="n">
-        <v>344.0505961438847</v>
+        <v>344.0505961438848</v>
       </c>
       <c r="Q41" t="n">
-        <v>340.0673320887512</v>
+        <v>340.0673320887511</v>
       </c>
       <c r="R41" t="n">
-        <v>338.006591902177</v>
+        <v>344.0505961438848</v>
       </c>
       <c r="S41" t="n">
-        <v>305.6930593496526</v>
+        <v>318.6347484893928</v>
       </c>
       <c r="T41" t="n">
-        <v>225.5056166902763</v>
+        <v>260.7115728620539</v>
       </c>
       <c r="U41" t="n">
         <v>248.0271961009711</v>
       </c>
       <c r="V41" t="n">
-        <v>343.4341383323014</v>
+        <v>343.434138332302</v>
       </c>
       <c r="W41" t="n">
-        <v>317.0122616388729</v>
+        <v>344.0505961438848</v>
       </c>
       <c r="X41" t="n">
-        <v>344.0505961438847</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y41" t="n">
-        <v>344.0505961438847</v>
+        <v>344.0505961438848</v>
       </c>
     </row>
     <row r="42">
@@ -30563,25 +30563,25 @@
         <v>196.196924297318</v>
       </c>
       <c r="K42" t="n">
-        <v>207.0473588872085</v>
+        <v>207.0473588872084</v>
       </c>
       <c r="L42" t="n">
-        <v>202.3662511366348</v>
+        <v>202.3662511366347</v>
       </c>
       <c r="M42" t="n">
-        <v>204.3792329255821</v>
+        <v>204.379232925582</v>
       </c>
       <c r="N42" t="n">
-        <v>186.1379895484117</v>
+        <v>186.1379895484116</v>
       </c>
       <c r="O42" t="n">
-        <v>206.7517814872645</v>
+        <v>206.7517814872644</v>
       </c>
       <c r="P42" t="n">
-        <v>197.6701005311781</v>
+        <v>197.670100531178</v>
       </c>
       <c r="Q42" t="n">
-        <v>214.0753023074448</v>
+        <v>214.0753023074447</v>
       </c>
       <c r="R42" t="n">
         <v>230.2139121683653</v>
@@ -30654,13 +30654,13 @@
         <v>194.0263706883593</v>
       </c>
       <c r="O43" t="n">
-        <v>212.5569488139993</v>
+        <v>212.5569488139992</v>
       </c>
       <c r="P43" t="n">
-        <v>213.1677790413427</v>
+        <v>213.1677790413426</v>
       </c>
       <c r="Q43" t="n">
-        <v>238.8288856261021</v>
+        <v>238.828885626102</v>
       </c>
       <c r="R43" t="n">
         <v>270.8937891275791</v>
@@ -30694,55 +30694,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="C44" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="D44" t="n">
-        <v>308.0002861418045</v>
+        <v>337.8447390213981</v>
       </c>
       <c r="E44" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="F44" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="G44" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="H44" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="I44" t="n">
-        <v>343.805635527897</v>
+        <v>334.2042800946149</v>
       </c>
       <c r="J44" t="n">
-        <v>308.7576117860483</v>
+        <v>277.5536360374477</v>
       </c>
       <c r="K44" t="n">
-        <v>332.6980306989641</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="L44" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="M44" t="n">
-        <v>343.805635527897</v>
+        <v>339.8745993753316</v>
       </c>
       <c r="N44" t="n">
-        <v>343.805635527897</v>
+        <v>337.8009554023869</v>
       </c>
       <c r="O44" t="n">
-        <v>343.805635527897</v>
+        <v>340.8645496701494</v>
       </c>
       <c r="P44" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="Q44" t="n">
-        <v>340.0673320887511</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="R44" t="n">
-        <v>343.805635527897</v>
+        <v>338.006591902177</v>
       </c>
       <c r="S44" t="n">
         <v>283.4287923176152</v>
@@ -30751,19 +30751,19 @@
         <v>256.7095924388769</v>
       </c>
       <c r="U44" t="n">
-        <v>248.0271961009711</v>
+        <v>279.2311718495718</v>
       </c>
       <c r="V44" t="n">
-        <v>339.432157909125</v>
+        <v>334.7032990126646</v>
       </c>
       <c r="W44" t="n">
-        <v>328.69656269526</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X44" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.805635527897</v>
+        <v>343.8056355278969</v>
       </c>
     </row>
     <row r="45">
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.196126114592763</v>
+        <v>0.196126114592764</v>
       </c>
       <c r="H11" t="n">
-        <v>2.008576571073135</v>
+        <v>2.008576571073145</v>
       </c>
       <c r="I11" t="n">
-        <v>7.561152032837504</v>
+        <v>7.561152032837543</v>
       </c>
       <c r="J11" t="n">
-        <v>16.64595881841754</v>
+        <v>16.64595881841762</v>
       </c>
       <c r="K11" t="n">
-        <v>24.9479772491292</v>
+        <v>24.94797724912933</v>
       </c>
       <c r="L11" t="n">
-        <v>30.95017182859748</v>
+        <v>30.95017182859764</v>
       </c>
       <c r="M11" t="n">
-        <v>34.43802961898653</v>
+        <v>34.4380296189867</v>
       </c>
       <c r="N11" t="n">
-        <v>34.99527294207322</v>
+        <v>34.9952729420734</v>
       </c>
       <c r="O11" t="n">
-        <v>33.04504389009143</v>
+        <v>33.0450438900916</v>
       </c>
       <c r="P11" t="n">
-        <v>28.20318043608259</v>
+        <v>28.20318043608273</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.17941395722925</v>
+        <v>21.17941395722936</v>
       </c>
       <c r="R11" t="n">
-        <v>12.31990704578766</v>
+        <v>12.31990704578772</v>
       </c>
       <c r="S11" t="n">
-        <v>4.469223836282592</v>
+        <v>4.469223836282615</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8585420666298206</v>
+        <v>0.858542066629825</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01569008916742104</v>
+        <v>0.01569008916742112</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1049367225389487</v>
+        <v>0.1049367225389493</v>
       </c>
       <c r="H12" t="n">
-        <v>1.013467820310373</v>
+        <v>1.013467820310378</v>
       </c>
       <c r="I12" t="n">
-        <v>3.612952947064682</v>
+        <v>3.612952947064701</v>
       </c>
       <c r="J12" t="n">
-        <v>9.914219036015329</v>
+        <v>9.914219036015378</v>
       </c>
       <c r="K12" t="n">
-        <v>16.94497944612489</v>
+        <v>16.94497944612498</v>
       </c>
       <c r="L12" t="n">
-        <v>22.78461600566078</v>
+        <v>22.78461600566089</v>
       </c>
       <c r="M12" t="n">
-        <v>26.58857219769766</v>
+        <v>26.5885721976978</v>
       </c>
       <c r="N12" t="n">
-        <v>27.29229258700492</v>
+        <v>27.29229258700505</v>
       </c>
       <c r="O12" t="n">
-        <v>24.96711573495768</v>
+        <v>24.96711573495781</v>
       </c>
       <c r="P12" t="n">
-        <v>20.03831151710855</v>
+        <v>20.03831151710865</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.39508058234019</v>
+        <v>13.39508058234026</v>
       </c>
       <c r="R12" t="n">
-        <v>6.515281773076135</v>
+        <v>6.515281773076167</v>
       </c>
       <c r="S12" t="n">
-        <v>1.949153596282665</v>
+        <v>1.949153596282674</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4229686316372537</v>
+        <v>0.4229686316372558</v>
       </c>
       <c r="U12" t="n">
-        <v>0.006903731745983471</v>
+        <v>0.006903731745983506</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08797542312368004</v>
+        <v>0.08797542312368048</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7821814892269012</v>
+        <v>0.7821814892269052</v>
       </c>
       <c r="I13" t="n">
-        <v>2.645660906301215</v>
+        <v>2.645660906301229</v>
       </c>
       <c r="J13" t="n">
-        <v>6.219862414844178</v>
+        <v>6.21986241484421</v>
       </c>
       <c r="K13" t="n">
-        <v>10.22114461382392</v>
+        <v>10.22114461382397</v>
       </c>
       <c r="L13" t="n">
-        <v>13.07954608876967</v>
+        <v>13.07954608876974</v>
       </c>
       <c r="M13" t="n">
-        <v>13.79054746292377</v>
+        <v>13.79054746292384</v>
       </c>
       <c r="N13" t="n">
-        <v>13.46263906764461</v>
+        <v>13.46263906764468</v>
       </c>
       <c r="O13" t="n">
-        <v>12.43492617024525</v>
+        <v>12.43492617024532</v>
       </c>
       <c r="P13" t="n">
-        <v>10.64022753852217</v>
+        <v>10.64022753852222</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.366742021747426</v>
+        <v>7.366742021747464</v>
       </c>
       <c r="R13" t="n">
-        <v>3.955694934270194</v>
+        <v>3.955694934270214</v>
       </c>
       <c r="S13" t="n">
-        <v>1.533171692073587</v>
+        <v>1.533171692073595</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3758949897102691</v>
+        <v>0.3758949897102711</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004798659443109826</v>
+        <v>0.00479865944310985</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.196126114592763</v>
+        <v>0.196126114592764</v>
       </c>
       <c r="H14" t="n">
-        <v>2.008576571073135</v>
+        <v>2.008576571073145</v>
       </c>
       <c r="I14" t="n">
-        <v>7.561152032837504</v>
+        <v>7.561152032837543</v>
       </c>
       <c r="J14" t="n">
-        <v>16.64595881841754</v>
+        <v>16.64595881841762</v>
       </c>
       <c r="K14" t="n">
-        <v>24.9479772491292</v>
+        <v>24.94797724912933</v>
       </c>
       <c r="L14" t="n">
-        <v>30.95017182859748</v>
+        <v>30.95017182859764</v>
       </c>
       <c r="M14" t="n">
-        <v>34.43802961898653</v>
+        <v>34.4380296189867</v>
       </c>
       <c r="N14" t="n">
-        <v>34.99527294207322</v>
+        <v>34.9952729420734</v>
       </c>
       <c r="O14" t="n">
-        <v>33.04504389009143</v>
+        <v>33.0450438900916</v>
       </c>
       <c r="P14" t="n">
-        <v>28.20318043608259</v>
+        <v>28.20318043608273</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.17941395722925</v>
+        <v>21.17941395722936</v>
       </c>
       <c r="R14" t="n">
-        <v>12.31990704578766</v>
+        <v>12.31990704578772</v>
       </c>
       <c r="S14" t="n">
-        <v>4.469223836282592</v>
+        <v>4.469223836282615</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8585420666298206</v>
+        <v>0.858542066629825</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01569008916742104</v>
+        <v>0.01569008916742112</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1049367225389487</v>
+        <v>0.1049367225389493</v>
       </c>
       <c r="H15" t="n">
-        <v>1.013467820310373</v>
+        <v>1.013467820310378</v>
       </c>
       <c r="I15" t="n">
-        <v>3.612952947064682</v>
+        <v>3.612952947064701</v>
       </c>
       <c r="J15" t="n">
-        <v>9.914219036015329</v>
+        <v>9.914219036015378</v>
       </c>
       <c r="K15" t="n">
-        <v>16.94497944612489</v>
+        <v>16.94497944612498</v>
       </c>
       <c r="L15" t="n">
-        <v>22.78461600566078</v>
+        <v>22.78461600566089</v>
       </c>
       <c r="M15" t="n">
-        <v>26.58857219769766</v>
+        <v>26.5885721976978</v>
       </c>
       <c r="N15" t="n">
-        <v>27.29229258700492</v>
+        <v>27.29229258700505</v>
       </c>
       <c r="O15" t="n">
-        <v>24.96711573495768</v>
+        <v>24.96711573495781</v>
       </c>
       <c r="P15" t="n">
-        <v>20.03831151710855</v>
+        <v>20.03831151710865</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.39508058234019</v>
+        <v>13.39508058234026</v>
       </c>
       <c r="R15" t="n">
-        <v>6.515281773076135</v>
+        <v>6.515281773076167</v>
       </c>
       <c r="S15" t="n">
-        <v>1.949153596282665</v>
+        <v>1.949153596282674</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4229686316372537</v>
+        <v>0.4229686316372558</v>
       </c>
       <c r="U15" t="n">
-        <v>0.006903731745983471</v>
+        <v>0.006903731745983506</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08797542312368004</v>
+        <v>0.08797542312368048</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7821814892269012</v>
+        <v>0.7821814892269052</v>
       </c>
       <c r="I16" t="n">
-        <v>2.645660906301215</v>
+        <v>2.645660906301229</v>
       </c>
       <c r="J16" t="n">
-        <v>6.219862414844178</v>
+        <v>6.21986241484421</v>
       </c>
       <c r="K16" t="n">
-        <v>10.22114461382392</v>
+        <v>10.22114461382397</v>
       </c>
       <c r="L16" t="n">
-        <v>13.07954608876967</v>
+        <v>13.07954608876974</v>
       </c>
       <c r="M16" t="n">
-        <v>13.79054746292377</v>
+        <v>13.79054746292384</v>
       </c>
       <c r="N16" t="n">
-        <v>13.46263906764461</v>
+        <v>13.46263906764468</v>
       </c>
       <c r="O16" t="n">
-        <v>12.43492617024525</v>
+        <v>12.43492617024532</v>
       </c>
       <c r="P16" t="n">
-        <v>10.64022753852217</v>
+        <v>10.64022753852222</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.366742021747426</v>
+        <v>7.366742021747464</v>
       </c>
       <c r="R16" t="n">
-        <v>3.955694934270194</v>
+        <v>3.955694934270214</v>
       </c>
       <c r="S16" t="n">
-        <v>1.533171692073587</v>
+        <v>1.533171692073595</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3758949897102691</v>
+        <v>0.3758949897102711</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004798659443109826</v>
+        <v>0.00479865944310985</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.196126114592763</v>
+        <v>0.196126114592764</v>
       </c>
       <c r="H17" t="n">
-        <v>2.008576571073135</v>
+        <v>2.008576571073145</v>
       </c>
       <c r="I17" t="n">
-        <v>7.561152032837504</v>
+        <v>7.561152032837543</v>
       </c>
       <c r="J17" t="n">
-        <v>16.64595881841754</v>
+        <v>16.64595881841762</v>
       </c>
       <c r="K17" t="n">
-        <v>24.9479772491292</v>
+        <v>24.94797724912933</v>
       </c>
       <c r="L17" t="n">
-        <v>30.95017182859748</v>
+        <v>30.95017182859764</v>
       </c>
       <c r="M17" t="n">
-        <v>34.43802961898653</v>
+        <v>34.4380296189867</v>
       </c>
       <c r="N17" t="n">
-        <v>34.99527294207322</v>
+        <v>34.9952729420734</v>
       </c>
       <c r="O17" t="n">
-        <v>33.04504389009143</v>
+        <v>33.0450438900916</v>
       </c>
       <c r="P17" t="n">
-        <v>28.20318043608259</v>
+        <v>28.20318043608273</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.17941395722925</v>
+        <v>21.17941395722936</v>
       </c>
       <c r="R17" t="n">
-        <v>12.31990704578766</v>
+        <v>12.31990704578772</v>
       </c>
       <c r="S17" t="n">
-        <v>4.469223836282592</v>
+        <v>4.469223836282615</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8585420666298206</v>
+        <v>0.858542066629825</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01569008916742104</v>
+        <v>0.01569008916742112</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1049367225389487</v>
+        <v>0.1049367225389493</v>
       </c>
       <c r="H18" t="n">
-        <v>1.013467820310373</v>
+        <v>1.013467820310378</v>
       </c>
       <c r="I18" t="n">
-        <v>3.612952947064682</v>
+        <v>3.612952947064701</v>
       </c>
       <c r="J18" t="n">
-        <v>9.914219036015329</v>
+        <v>9.914219036015378</v>
       </c>
       <c r="K18" t="n">
-        <v>16.94497944612489</v>
+        <v>16.94497944612498</v>
       </c>
       <c r="L18" t="n">
-        <v>22.78461600566078</v>
+        <v>22.78461600566089</v>
       </c>
       <c r="M18" t="n">
-        <v>26.58857219769766</v>
+        <v>26.5885721976978</v>
       </c>
       <c r="N18" t="n">
-        <v>27.29229258700492</v>
+        <v>27.29229258700505</v>
       </c>
       <c r="O18" t="n">
-        <v>24.96711573495768</v>
+        <v>24.96711573495781</v>
       </c>
       <c r="P18" t="n">
-        <v>20.03831151710855</v>
+        <v>20.03831151710865</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.39508058234019</v>
+        <v>13.39508058234026</v>
       </c>
       <c r="R18" t="n">
-        <v>6.515281773076135</v>
+        <v>6.515281773076167</v>
       </c>
       <c r="S18" t="n">
-        <v>1.949153596282665</v>
+        <v>1.949153596282674</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4229686316372537</v>
+        <v>0.4229686316372558</v>
       </c>
       <c r="U18" t="n">
-        <v>0.006903731745983471</v>
+        <v>0.006903731745983506</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08797542312368004</v>
+        <v>0.08797542312368048</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7821814892269012</v>
+        <v>0.7821814892269052</v>
       </c>
       <c r="I19" t="n">
-        <v>2.645660906301215</v>
+        <v>2.645660906301229</v>
       </c>
       <c r="J19" t="n">
-        <v>6.219862414844178</v>
+        <v>6.21986241484421</v>
       </c>
       <c r="K19" t="n">
-        <v>10.22114461382392</v>
+        <v>10.22114461382397</v>
       </c>
       <c r="L19" t="n">
-        <v>13.07954608876967</v>
+        <v>13.07954608876974</v>
       </c>
       <c r="M19" t="n">
-        <v>13.79054746292377</v>
+        <v>13.79054746292384</v>
       </c>
       <c r="N19" t="n">
-        <v>13.46263906764461</v>
+        <v>13.46263906764468</v>
       </c>
       <c r="O19" t="n">
-        <v>12.43492617024525</v>
+        <v>12.43492617024532</v>
       </c>
       <c r="P19" t="n">
-        <v>10.64022753852217</v>
+        <v>10.64022753852222</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.366742021747426</v>
+        <v>7.366742021747464</v>
       </c>
       <c r="R19" t="n">
-        <v>3.955694934270194</v>
+        <v>3.955694934270214</v>
       </c>
       <c r="S19" t="n">
-        <v>1.533171692073587</v>
+        <v>1.533171692073595</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3758949897102691</v>
+        <v>0.3758949897102711</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004798659443109826</v>
+        <v>0.00479865944310985</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.196126114592763</v>
+        <v>0.196126114592764</v>
       </c>
       <c r="H20" t="n">
-        <v>2.008576571073135</v>
+        <v>2.008576571073145</v>
       </c>
       <c r="I20" t="n">
-        <v>7.561152032837504</v>
+        <v>7.561152032837543</v>
       </c>
       <c r="J20" t="n">
-        <v>16.64595881841754</v>
+        <v>16.64595881841762</v>
       </c>
       <c r="K20" t="n">
-        <v>24.9479772491292</v>
+        <v>24.94797724912933</v>
       </c>
       <c r="L20" t="n">
-        <v>30.95017182859748</v>
+        <v>30.95017182859764</v>
       </c>
       <c r="M20" t="n">
-        <v>34.43802961898653</v>
+        <v>34.4380296189867</v>
       </c>
       <c r="N20" t="n">
-        <v>34.99527294207322</v>
+        <v>34.9952729420734</v>
       </c>
       <c r="O20" t="n">
-        <v>33.04504389009143</v>
+        <v>33.0450438900916</v>
       </c>
       <c r="P20" t="n">
-        <v>28.20318043608259</v>
+        <v>28.20318043608273</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.17941395722925</v>
+        <v>21.17941395722936</v>
       </c>
       <c r="R20" t="n">
-        <v>12.31990704578766</v>
+        <v>12.31990704578772</v>
       </c>
       <c r="S20" t="n">
-        <v>4.469223836282592</v>
+        <v>4.469223836282615</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8585420666298206</v>
+        <v>0.858542066629825</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01569008916742104</v>
+        <v>0.01569008916742112</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1049367225389487</v>
+        <v>0.1049367225389493</v>
       </c>
       <c r="H21" t="n">
-        <v>1.013467820310373</v>
+        <v>1.013467820310378</v>
       </c>
       <c r="I21" t="n">
-        <v>3.612952947064682</v>
+        <v>3.612952947064701</v>
       </c>
       <c r="J21" t="n">
-        <v>9.914219036015329</v>
+        <v>9.914219036015378</v>
       </c>
       <c r="K21" t="n">
-        <v>16.94497944612489</v>
+        <v>16.94497944612498</v>
       </c>
       <c r="L21" t="n">
-        <v>22.78461600566078</v>
+        <v>22.78461600566089</v>
       </c>
       <c r="M21" t="n">
-        <v>26.58857219769766</v>
+        <v>26.5885721976978</v>
       </c>
       <c r="N21" t="n">
-        <v>27.29229258700492</v>
+        <v>27.29229258700505</v>
       </c>
       <c r="O21" t="n">
-        <v>24.96711573495768</v>
+        <v>24.96711573495781</v>
       </c>
       <c r="P21" t="n">
-        <v>20.03831151710855</v>
+        <v>20.03831151710865</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.39508058234019</v>
+        <v>13.39508058234026</v>
       </c>
       <c r="R21" t="n">
-        <v>6.515281773076135</v>
+        <v>6.515281773076167</v>
       </c>
       <c r="S21" t="n">
-        <v>1.949153596282665</v>
+        <v>1.949153596282674</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4229686316372537</v>
+        <v>0.4229686316372558</v>
       </c>
       <c r="U21" t="n">
-        <v>0.006903731745983471</v>
+        <v>0.006903731745983506</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08797542312368004</v>
+        <v>0.08797542312368048</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7821814892269012</v>
+        <v>0.7821814892269052</v>
       </c>
       <c r="I22" t="n">
-        <v>2.645660906301215</v>
+        <v>2.645660906301229</v>
       </c>
       <c r="J22" t="n">
-        <v>6.219862414844178</v>
+        <v>6.21986241484421</v>
       </c>
       <c r="K22" t="n">
-        <v>10.22114461382392</v>
+        <v>10.22114461382397</v>
       </c>
       <c r="L22" t="n">
-        <v>13.07954608876967</v>
+        <v>13.07954608876974</v>
       </c>
       <c r="M22" t="n">
-        <v>13.79054746292377</v>
+        <v>13.79054746292384</v>
       </c>
       <c r="N22" t="n">
-        <v>13.46263906764461</v>
+        <v>13.46263906764468</v>
       </c>
       <c r="O22" t="n">
-        <v>12.43492617024525</v>
+        <v>12.43492617024532</v>
       </c>
       <c r="P22" t="n">
-        <v>10.64022753852217</v>
+        <v>10.64022753852222</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.366742021747426</v>
+        <v>7.366742021747464</v>
       </c>
       <c r="R22" t="n">
-        <v>3.955694934270194</v>
+        <v>3.955694934270214</v>
       </c>
       <c r="S22" t="n">
-        <v>1.533171692073587</v>
+        <v>1.533171692073595</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3758949897102691</v>
+        <v>0.3758949897102711</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004798659443109826</v>
+        <v>0.00479865944310985</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.196126114592763</v>
+        <v>0.196126114592764</v>
       </c>
       <c r="H23" t="n">
-        <v>2.008576571073135</v>
+        <v>2.008576571073145</v>
       </c>
       <c r="I23" t="n">
-        <v>7.561152032837504</v>
+        <v>7.561152032837543</v>
       </c>
       <c r="J23" t="n">
-        <v>16.64595881841754</v>
+        <v>16.64595881841762</v>
       </c>
       <c r="K23" t="n">
-        <v>24.9479772491292</v>
+        <v>24.94797724912933</v>
       </c>
       <c r="L23" t="n">
-        <v>30.95017182859748</v>
+        <v>30.95017182859764</v>
       </c>
       <c r="M23" t="n">
-        <v>34.43802961898653</v>
+        <v>34.4380296189867</v>
       </c>
       <c r="N23" t="n">
-        <v>34.99527294207322</v>
+        <v>34.9952729420734</v>
       </c>
       <c r="O23" t="n">
-        <v>33.04504389009143</v>
+        <v>33.0450438900916</v>
       </c>
       <c r="P23" t="n">
-        <v>28.20318043608259</v>
+        <v>28.20318043608273</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.17941395722925</v>
+        <v>21.17941395722936</v>
       </c>
       <c r="R23" t="n">
-        <v>12.31990704578766</v>
+        <v>12.31990704578772</v>
       </c>
       <c r="S23" t="n">
-        <v>4.469223836282592</v>
+        <v>4.469223836282615</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8585420666298206</v>
+        <v>0.858542066629825</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01569008916742104</v>
+        <v>0.01569008916742112</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1049367225389487</v>
+        <v>0.1049367225389493</v>
       </c>
       <c r="H24" t="n">
-        <v>1.013467820310373</v>
+        <v>1.013467820310378</v>
       </c>
       <c r="I24" t="n">
-        <v>3.612952947064682</v>
+        <v>3.612952947064701</v>
       </c>
       <c r="J24" t="n">
-        <v>9.914219036015329</v>
+        <v>9.914219036015378</v>
       </c>
       <c r="K24" t="n">
-        <v>16.94497944612489</v>
+        <v>16.94497944612498</v>
       </c>
       <c r="L24" t="n">
-        <v>22.78461600566078</v>
+        <v>22.78461600566089</v>
       </c>
       <c r="M24" t="n">
-        <v>26.58857219769766</v>
+        <v>26.5885721976978</v>
       </c>
       <c r="N24" t="n">
-        <v>27.29229258700492</v>
+        <v>27.29229258700505</v>
       </c>
       <c r="O24" t="n">
-        <v>24.96711573495768</v>
+        <v>24.96711573495781</v>
       </c>
       <c r="P24" t="n">
-        <v>20.03831151710855</v>
+        <v>20.03831151710865</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.39508058234019</v>
+        <v>13.39508058234026</v>
       </c>
       <c r="R24" t="n">
-        <v>6.515281773076135</v>
+        <v>6.515281773076167</v>
       </c>
       <c r="S24" t="n">
-        <v>1.949153596282665</v>
+        <v>1.949153596282674</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4229686316372537</v>
+        <v>0.4229686316372558</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006903731745983471</v>
+        <v>0.006903731745983506</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08797542312368004</v>
+        <v>0.08797542312368048</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7821814892269012</v>
+        <v>0.7821814892269052</v>
       </c>
       <c r="I25" t="n">
-        <v>2.645660906301215</v>
+        <v>2.645660906301229</v>
       </c>
       <c r="J25" t="n">
-        <v>6.219862414844178</v>
+        <v>6.21986241484421</v>
       </c>
       <c r="K25" t="n">
-        <v>10.22114461382392</v>
+        <v>10.22114461382397</v>
       </c>
       <c r="L25" t="n">
-        <v>13.07954608876967</v>
+        <v>13.07954608876974</v>
       </c>
       <c r="M25" t="n">
-        <v>13.79054746292377</v>
+        <v>13.79054746292384</v>
       </c>
       <c r="N25" t="n">
-        <v>13.46263906764461</v>
+        <v>13.46263906764468</v>
       </c>
       <c r="O25" t="n">
-        <v>12.43492617024525</v>
+        <v>12.43492617024532</v>
       </c>
       <c r="P25" t="n">
-        <v>10.64022753852217</v>
+        <v>10.64022753852222</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.366742021747426</v>
+        <v>7.366742021747464</v>
       </c>
       <c r="R25" t="n">
-        <v>3.955694934270194</v>
+        <v>3.955694934270214</v>
       </c>
       <c r="S25" t="n">
-        <v>1.533171692073587</v>
+        <v>1.533171692073595</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3758949897102691</v>
+        <v>0.3758949897102711</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004798659443109826</v>
+        <v>0.00479865944310985</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1961261145927635</v>
+        <v>0.196126114592764</v>
       </c>
       <c r="H26" t="n">
-        <v>2.00857657107314</v>
+        <v>2.008576571073145</v>
       </c>
       <c r="I26" t="n">
-        <v>7.561152032837522</v>
+        <v>7.561152032837543</v>
       </c>
       <c r="J26" t="n">
-        <v>16.64595881841758</v>
+        <v>16.64595881841762</v>
       </c>
       <c r="K26" t="n">
-        <v>24.94797724912926</v>
+        <v>24.94797724912933</v>
       </c>
       <c r="L26" t="n">
-        <v>30.95017182859755</v>
+        <v>30.95017182859764</v>
       </c>
       <c r="M26" t="n">
-        <v>34.4380296189866</v>
+        <v>34.4380296189867</v>
       </c>
       <c r="N26" t="n">
-        <v>34.9952729420733</v>
+        <v>34.9952729420734</v>
       </c>
       <c r="O26" t="n">
-        <v>33.04504389009151</v>
+        <v>33.0450438900916</v>
       </c>
       <c r="P26" t="n">
-        <v>28.20318043608265</v>
+        <v>28.20318043608273</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.1794139572293</v>
+        <v>21.17941395722936</v>
       </c>
       <c r="R26" t="n">
-        <v>12.31990704578769</v>
+        <v>12.31990704578772</v>
       </c>
       <c r="S26" t="n">
-        <v>4.469223836282603</v>
+        <v>4.469223836282615</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8585420666298226</v>
+        <v>0.858542066629825</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01569008916742108</v>
+        <v>0.01569008916742112</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.104936722538949</v>
+        <v>0.1049367225389493</v>
       </c>
       <c r="H27" t="n">
-        <v>1.013467820310376</v>
+        <v>1.013467820310378</v>
       </c>
       <c r="I27" t="n">
-        <v>3.612952947064691</v>
+        <v>3.612952947064701</v>
       </c>
       <c r="J27" t="n">
-        <v>9.914219036015352</v>
+        <v>9.914219036015378</v>
       </c>
       <c r="K27" t="n">
-        <v>16.94497944612493</v>
+        <v>16.94497944612498</v>
       </c>
       <c r="L27" t="n">
-        <v>22.78461600566083</v>
+        <v>22.78461600566089</v>
       </c>
       <c r="M27" t="n">
-        <v>26.58857219769772</v>
+        <v>26.5885721976978</v>
       </c>
       <c r="N27" t="n">
-        <v>27.29229258700498</v>
+        <v>27.29229258700505</v>
       </c>
       <c r="O27" t="n">
-        <v>24.96711573495774</v>
+        <v>24.96711573495781</v>
       </c>
       <c r="P27" t="n">
-        <v>20.0383115171086</v>
+        <v>20.03831151710865</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.39508058234022</v>
+        <v>13.39508058234026</v>
       </c>
       <c r="R27" t="n">
-        <v>6.51528177307615</v>
+        <v>6.515281773076167</v>
       </c>
       <c r="S27" t="n">
-        <v>1.949153596282669</v>
+        <v>1.949153596282674</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4229686316372547</v>
+        <v>0.4229686316372558</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006903731745983487</v>
+        <v>0.006903731745983506</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08797542312368024</v>
+        <v>0.08797542312368048</v>
       </c>
       <c r="H28" t="n">
-        <v>0.782181489226903</v>
+        <v>0.7821814892269052</v>
       </c>
       <c r="I28" t="n">
-        <v>2.645660906301221</v>
+        <v>2.645660906301229</v>
       </c>
       <c r="J28" t="n">
-        <v>6.219862414844193</v>
+        <v>6.21986241484421</v>
       </c>
       <c r="K28" t="n">
-        <v>10.22114461382394</v>
+        <v>10.22114461382397</v>
       </c>
       <c r="L28" t="n">
-        <v>13.0795460887697</v>
+        <v>13.07954608876974</v>
       </c>
       <c r="M28" t="n">
-        <v>13.7905474629238</v>
+        <v>13.79054746292384</v>
       </c>
       <c r="N28" t="n">
-        <v>13.46263906764464</v>
+        <v>13.46263906764468</v>
       </c>
       <c r="O28" t="n">
-        <v>12.43492617024528</v>
+        <v>12.43492617024532</v>
       </c>
       <c r="P28" t="n">
-        <v>10.6402275385222</v>
+        <v>10.64022753852222</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.366742021747443</v>
+        <v>7.366742021747464</v>
       </c>
       <c r="R28" t="n">
-        <v>3.955694934270203</v>
+        <v>3.955694934270214</v>
       </c>
       <c r="S28" t="n">
-        <v>1.53317169207359</v>
+        <v>1.533171692073595</v>
       </c>
       <c r="T28" t="n">
-        <v>0.37589498971027</v>
+        <v>0.3758949897102711</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004798659443109836</v>
+        <v>0.00479865944310985</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.196126114592763</v>
+        <v>0.196126114592764</v>
       </c>
       <c r="H29" t="n">
-        <v>2.008576571073135</v>
+        <v>2.008576571073145</v>
       </c>
       <c r="I29" t="n">
-        <v>7.561152032837504</v>
+        <v>7.561152032837543</v>
       </c>
       <c r="J29" t="n">
-        <v>16.64595881841754</v>
+        <v>16.64595881841762</v>
       </c>
       <c r="K29" t="n">
-        <v>24.9479772491292</v>
+        <v>24.94797724912933</v>
       </c>
       <c r="L29" t="n">
-        <v>30.95017182859748</v>
+        <v>30.95017182859764</v>
       </c>
       <c r="M29" t="n">
-        <v>34.43802961898653</v>
+        <v>34.4380296189867</v>
       </c>
       <c r="N29" t="n">
-        <v>34.99527294207322</v>
+        <v>34.9952729420734</v>
       </c>
       <c r="O29" t="n">
-        <v>33.04504389009143</v>
+        <v>33.0450438900916</v>
       </c>
       <c r="P29" t="n">
-        <v>28.20318043608259</v>
+        <v>28.20318043608273</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.17941395722925</v>
+        <v>21.17941395722936</v>
       </c>
       <c r="R29" t="n">
-        <v>12.31990704578766</v>
+        <v>12.31990704578772</v>
       </c>
       <c r="S29" t="n">
-        <v>4.469223836282592</v>
+        <v>4.469223836282615</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8585420666298206</v>
+        <v>0.858542066629825</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01569008916742104</v>
+        <v>0.01569008916742112</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1049367225389487</v>
+        <v>0.1049367225389493</v>
       </c>
       <c r="H30" t="n">
-        <v>1.013467820310373</v>
+        <v>1.013467820310378</v>
       </c>
       <c r="I30" t="n">
-        <v>3.612952947064682</v>
+        <v>3.612952947064701</v>
       </c>
       <c r="J30" t="n">
-        <v>9.914219036015329</v>
+        <v>9.914219036015378</v>
       </c>
       <c r="K30" t="n">
-        <v>16.94497944612489</v>
+        <v>16.94497944612498</v>
       </c>
       <c r="L30" t="n">
-        <v>22.78461600566078</v>
+        <v>22.78461600566089</v>
       </c>
       <c r="M30" t="n">
-        <v>26.58857219769766</v>
+        <v>26.5885721976978</v>
       </c>
       <c r="N30" t="n">
-        <v>27.29229258700492</v>
+        <v>27.29229258700505</v>
       </c>
       <c r="O30" t="n">
-        <v>24.96711573495768</v>
+        <v>24.96711573495781</v>
       </c>
       <c r="P30" t="n">
-        <v>20.03831151710855</v>
+        <v>20.03831151710865</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.39508058234019</v>
+        <v>13.39508058234026</v>
       </c>
       <c r="R30" t="n">
-        <v>6.515281773076135</v>
+        <v>6.515281773076167</v>
       </c>
       <c r="S30" t="n">
-        <v>1.949153596282665</v>
+        <v>1.949153596282674</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4229686316372537</v>
+        <v>0.4229686316372558</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006903731745983471</v>
+        <v>0.006903731745983506</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08797542312368004</v>
+        <v>0.08797542312368048</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7821814892269012</v>
+        <v>0.7821814892269052</v>
       </c>
       <c r="I31" t="n">
-        <v>2.645660906301215</v>
+        <v>2.645660906301229</v>
       </c>
       <c r="J31" t="n">
-        <v>6.219862414844178</v>
+        <v>6.21986241484421</v>
       </c>
       <c r="K31" t="n">
-        <v>10.22114461382392</v>
+        <v>10.22114461382397</v>
       </c>
       <c r="L31" t="n">
-        <v>13.07954608876967</v>
+        <v>13.07954608876974</v>
       </c>
       <c r="M31" t="n">
-        <v>13.79054746292377</v>
+        <v>13.79054746292384</v>
       </c>
       <c r="N31" t="n">
-        <v>13.46263906764461</v>
+        <v>13.46263906764468</v>
       </c>
       <c r="O31" t="n">
-        <v>12.43492617024525</v>
+        <v>12.43492617024532</v>
       </c>
       <c r="P31" t="n">
-        <v>10.64022753852217</v>
+        <v>10.64022753852222</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.366742021747426</v>
+        <v>7.366742021747464</v>
       </c>
       <c r="R31" t="n">
-        <v>3.955694934270194</v>
+        <v>3.955694934270214</v>
       </c>
       <c r="S31" t="n">
-        <v>1.533171692073587</v>
+        <v>1.533171692073595</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3758949897102691</v>
+        <v>0.3758949897102711</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004798659443109826</v>
+        <v>0.00479865944310985</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.196126114592763</v>
+        <v>0.196126114592764</v>
       </c>
       <c r="H32" t="n">
-        <v>2.008576571073135</v>
+        <v>2.008576571073145</v>
       </c>
       <c r="I32" t="n">
-        <v>7.561152032837504</v>
+        <v>7.561152032837543</v>
       </c>
       <c r="J32" t="n">
-        <v>16.64595881841754</v>
+        <v>16.64595881841762</v>
       </c>
       <c r="K32" t="n">
-        <v>24.9479772491292</v>
+        <v>24.94797724912933</v>
       </c>
       <c r="L32" t="n">
-        <v>30.95017182859748</v>
+        <v>30.95017182859764</v>
       </c>
       <c r="M32" t="n">
-        <v>34.43802961898653</v>
+        <v>34.4380296189867</v>
       </c>
       <c r="N32" t="n">
-        <v>34.99527294207322</v>
+        <v>34.9952729420734</v>
       </c>
       <c r="O32" t="n">
-        <v>33.04504389009143</v>
+        <v>33.0450438900916</v>
       </c>
       <c r="P32" t="n">
-        <v>28.20318043608259</v>
+        <v>28.20318043608273</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.17941395722925</v>
+        <v>21.17941395722936</v>
       </c>
       <c r="R32" t="n">
-        <v>12.31990704578766</v>
+        <v>12.31990704578772</v>
       </c>
       <c r="S32" t="n">
-        <v>4.469223836282592</v>
+        <v>4.469223836282615</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8585420666298206</v>
+        <v>0.858542066629825</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01569008916742104</v>
+        <v>0.01569008916742112</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1049367225389487</v>
+        <v>0.1049367225389493</v>
       </c>
       <c r="H33" t="n">
-        <v>1.013467820310373</v>
+        <v>1.013467820310378</v>
       </c>
       <c r="I33" t="n">
-        <v>3.612952947064682</v>
+        <v>3.612952947064701</v>
       </c>
       <c r="J33" t="n">
-        <v>9.914219036015329</v>
+        <v>9.914219036015378</v>
       </c>
       <c r="K33" t="n">
-        <v>16.94497944612489</v>
+        <v>16.94497944612498</v>
       </c>
       <c r="L33" t="n">
-        <v>22.78461600566078</v>
+        <v>22.78461600566089</v>
       </c>
       <c r="M33" t="n">
-        <v>26.58857219769766</v>
+        <v>26.5885721976978</v>
       </c>
       <c r="N33" t="n">
-        <v>27.29229258700492</v>
+        <v>27.29229258700505</v>
       </c>
       <c r="O33" t="n">
-        <v>24.96711573495768</v>
+        <v>24.96711573495781</v>
       </c>
       <c r="P33" t="n">
-        <v>20.03831151710855</v>
+        <v>20.03831151710865</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.39508058234019</v>
+        <v>13.39508058234026</v>
       </c>
       <c r="R33" t="n">
-        <v>6.515281773076135</v>
+        <v>6.515281773076167</v>
       </c>
       <c r="S33" t="n">
-        <v>1.949153596282665</v>
+        <v>1.949153596282674</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4229686316372537</v>
+        <v>0.4229686316372558</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006903731745983471</v>
+        <v>0.006903731745983506</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08797542312368004</v>
+        <v>0.08797542312368048</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7821814892269012</v>
+        <v>0.7821814892269052</v>
       </c>
       <c r="I34" t="n">
-        <v>2.645660906301215</v>
+        <v>2.645660906301229</v>
       </c>
       <c r="J34" t="n">
-        <v>6.219862414844178</v>
+        <v>6.21986241484421</v>
       </c>
       <c r="K34" t="n">
-        <v>10.22114461382392</v>
+        <v>10.22114461382397</v>
       </c>
       <c r="L34" t="n">
-        <v>13.07954608876967</v>
+        <v>13.07954608876974</v>
       </c>
       <c r="M34" t="n">
-        <v>13.79054746292377</v>
+        <v>13.79054746292384</v>
       </c>
       <c r="N34" t="n">
-        <v>13.46263906764461</v>
+        <v>13.46263906764468</v>
       </c>
       <c r="O34" t="n">
-        <v>12.43492617024525</v>
+        <v>12.43492617024532</v>
       </c>
       <c r="P34" t="n">
-        <v>10.64022753852217</v>
+        <v>10.64022753852222</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.366742021747426</v>
+        <v>7.366742021747464</v>
       </c>
       <c r="R34" t="n">
-        <v>3.955694934270194</v>
+        <v>3.955694934270214</v>
       </c>
       <c r="S34" t="n">
-        <v>1.533171692073587</v>
+        <v>1.533171692073595</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3758949897102691</v>
+        <v>0.3758949897102711</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004798659443109826</v>
+        <v>0.00479865944310985</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.196126114592763</v>
+        <v>0.1961261145927639</v>
       </c>
       <c r="H35" t="n">
-        <v>2.008576571073135</v>
+        <v>2.008576571073144</v>
       </c>
       <c r="I35" t="n">
-        <v>7.561152032837504</v>
+        <v>7.56115203283754</v>
       </c>
       <c r="J35" t="n">
-        <v>16.64595881841754</v>
+        <v>16.64595881841761</v>
       </c>
       <c r="K35" t="n">
-        <v>24.9479772491292</v>
+        <v>24.94797724912932</v>
       </c>
       <c r="L35" t="n">
-        <v>30.95017182859748</v>
+        <v>30.95017182859763</v>
       </c>
       <c r="M35" t="n">
-        <v>34.43802961898653</v>
+        <v>34.43802961898669</v>
       </c>
       <c r="N35" t="n">
-        <v>34.99527294207322</v>
+        <v>34.99527294207338</v>
       </c>
       <c r="O35" t="n">
-        <v>33.04504389009143</v>
+        <v>33.04504389009158</v>
       </c>
       <c r="P35" t="n">
-        <v>28.20318043608259</v>
+        <v>28.20318043608272</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.17941395722925</v>
+        <v>21.17941395722935</v>
       </c>
       <c r="R35" t="n">
-        <v>12.31990704578766</v>
+        <v>12.31990704578772</v>
       </c>
       <c r="S35" t="n">
-        <v>4.469223836282592</v>
+        <v>4.469223836282613</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8585420666298206</v>
+        <v>0.8585420666298247</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01569008916742104</v>
+        <v>0.01569008916742111</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1049367225389487</v>
+        <v>0.1049367225389492</v>
       </c>
       <c r="H36" t="n">
-        <v>1.013467820310373</v>
+        <v>1.013467820310378</v>
       </c>
       <c r="I36" t="n">
-        <v>3.612952947064682</v>
+        <v>3.612952947064699</v>
       </c>
       <c r="J36" t="n">
-        <v>9.914219036015329</v>
+        <v>9.914219036015375</v>
       </c>
       <c r="K36" t="n">
-        <v>16.94497944612489</v>
+        <v>16.94497944612497</v>
       </c>
       <c r="L36" t="n">
-        <v>22.78461600566078</v>
+        <v>22.78461600566088</v>
       </c>
       <c r="M36" t="n">
-        <v>26.58857219769766</v>
+        <v>26.58857219769779</v>
       </c>
       <c r="N36" t="n">
-        <v>27.29229258700492</v>
+        <v>27.29229258700504</v>
       </c>
       <c r="O36" t="n">
-        <v>24.96711573495768</v>
+        <v>24.9671157349578</v>
       </c>
       <c r="P36" t="n">
-        <v>20.03831151710855</v>
+        <v>20.03831151710865</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.39508058234019</v>
+        <v>13.39508058234025</v>
       </c>
       <c r="R36" t="n">
-        <v>6.515281773076135</v>
+        <v>6.515281773076165</v>
       </c>
       <c r="S36" t="n">
-        <v>1.949153596282665</v>
+        <v>1.949153596282674</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4229686316372537</v>
+        <v>0.4229686316372556</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006903731745983471</v>
+        <v>0.006903731745983503</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08797542312368004</v>
+        <v>0.08797542312368044</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7821814892269012</v>
+        <v>0.7821814892269049</v>
       </c>
       <c r="I37" t="n">
-        <v>2.645660906301215</v>
+        <v>2.645660906301227</v>
       </c>
       <c r="J37" t="n">
-        <v>6.219862414844178</v>
+        <v>6.219862414844207</v>
       </c>
       <c r="K37" t="n">
-        <v>10.22114461382392</v>
+        <v>10.22114461382396</v>
       </c>
       <c r="L37" t="n">
-        <v>13.07954608876967</v>
+        <v>13.07954608876973</v>
       </c>
       <c r="M37" t="n">
-        <v>13.79054746292377</v>
+        <v>13.79054746292383</v>
       </c>
       <c r="N37" t="n">
-        <v>13.46263906764461</v>
+        <v>13.46263906764467</v>
       </c>
       <c r="O37" t="n">
-        <v>12.43492617024525</v>
+        <v>12.43492617024531</v>
       </c>
       <c r="P37" t="n">
-        <v>10.64022753852217</v>
+        <v>10.64022753852222</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.366742021747426</v>
+        <v>7.36674202174746</v>
       </c>
       <c r="R37" t="n">
-        <v>3.955694934270194</v>
+        <v>3.955694934270213</v>
       </c>
       <c r="S37" t="n">
-        <v>1.533171692073587</v>
+        <v>1.533171692073594</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3758949897102691</v>
+        <v>0.3758949897102709</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004798659443109826</v>
+        <v>0.004798659443109848</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.196126114592763</v>
+        <v>0.1961261145927639</v>
       </c>
       <c r="H38" t="n">
-        <v>2.008576571073135</v>
+        <v>2.008576571073144</v>
       </c>
       <c r="I38" t="n">
-        <v>7.561152032837504</v>
+        <v>7.56115203283754</v>
       </c>
       <c r="J38" t="n">
-        <v>16.64595881841754</v>
+        <v>16.64595881841761</v>
       </c>
       <c r="K38" t="n">
-        <v>24.9479772491292</v>
+        <v>24.94797724912932</v>
       </c>
       <c r="L38" t="n">
-        <v>30.95017182859748</v>
+        <v>30.95017182859763</v>
       </c>
       <c r="M38" t="n">
-        <v>34.43802961898653</v>
+        <v>34.43802961898669</v>
       </c>
       <c r="N38" t="n">
-        <v>34.99527294207322</v>
+        <v>34.99527294207338</v>
       </c>
       <c r="O38" t="n">
-        <v>33.04504389009143</v>
+        <v>33.04504389009158</v>
       </c>
       <c r="P38" t="n">
-        <v>28.20318043608259</v>
+        <v>28.20318043608272</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.17941395722925</v>
+        <v>21.17941395722935</v>
       </c>
       <c r="R38" t="n">
-        <v>12.31990704578766</v>
+        <v>12.31990704578772</v>
       </c>
       <c r="S38" t="n">
-        <v>4.469223836282592</v>
+        <v>4.469223836282613</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8585420666298206</v>
+        <v>0.8585420666298247</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01569008916742104</v>
+        <v>0.01569008916742111</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1049367225389487</v>
+        <v>0.1049367225389492</v>
       </c>
       <c r="H39" t="n">
-        <v>1.013467820310373</v>
+        <v>1.013467820310378</v>
       </c>
       <c r="I39" t="n">
-        <v>3.612952947064682</v>
+        <v>3.612952947064699</v>
       </c>
       <c r="J39" t="n">
-        <v>9.914219036015329</v>
+        <v>9.914219036015375</v>
       </c>
       <c r="K39" t="n">
-        <v>16.94497944612489</v>
+        <v>16.94497944612497</v>
       </c>
       <c r="L39" t="n">
-        <v>22.78461600566078</v>
+        <v>22.78461600566088</v>
       </c>
       <c r="M39" t="n">
-        <v>26.58857219769766</v>
+        <v>26.58857219769779</v>
       </c>
       <c r="N39" t="n">
-        <v>27.29229258700492</v>
+        <v>27.29229258700504</v>
       </c>
       <c r="O39" t="n">
-        <v>24.96711573495768</v>
+        <v>24.9671157349578</v>
       </c>
       <c r="P39" t="n">
-        <v>20.03831151710855</v>
+        <v>20.03831151710865</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.39508058234019</v>
+        <v>13.39508058234025</v>
       </c>
       <c r="R39" t="n">
-        <v>6.515281773076135</v>
+        <v>6.515281773076165</v>
       </c>
       <c r="S39" t="n">
-        <v>1.949153596282665</v>
+        <v>1.949153596282674</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4229686316372537</v>
+        <v>0.4229686316372556</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006903731745983471</v>
+        <v>0.006903731745983503</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08797542312368004</v>
+        <v>0.08797542312368044</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7821814892269012</v>
+        <v>0.7821814892269049</v>
       </c>
       <c r="I40" t="n">
-        <v>2.645660906301215</v>
+        <v>2.645660906301227</v>
       </c>
       <c r="J40" t="n">
-        <v>6.219862414844178</v>
+        <v>6.219862414844207</v>
       </c>
       <c r="K40" t="n">
-        <v>10.22114461382392</v>
+        <v>10.22114461382396</v>
       </c>
       <c r="L40" t="n">
-        <v>13.07954608876967</v>
+        <v>13.07954608876973</v>
       </c>
       <c r="M40" t="n">
-        <v>13.79054746292377</v>
+        <v>13.79054746292383</v>
       </c>
       <c r="N40" t="n">
-        <v>13.46263906764461</v>
+        <v>13.46263906764467</v>
       </c>
       <c r="O40" t="n">
-        <v>12.43492617024525</v>
+        <v>12.43492617024531</v>
       </c>
       <c r="P40" t="n">
-        <v>10.64022753852217</v>
+        <v>10.64022753852222</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.366742021747426</v>
+        <v>7.36674202174746</v>
       </c>
       <c r="R40" t="n">
-        <v>3.955694934270194</v>
+        <v>3.955694934270213</v>
       </c>
       <c r="S40" t="n">
-        <v>1.533171692073587</v>
+        <v>1.533171692073594</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3758949897102691</v>
+        <v>0.3758949897102709</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004798659443109826</v>
+        <v>0.004798659443109848</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.196126114592763</v>
+        <v>0.1961261145927639</v>
       </c>
       <c r="H41" t="n">
-        <v>2.008576571073135</v>
+        <v>2.008576571073144</v>
       </c>
       <c r="I41" t="n">
-        <v>7.561152032837504</v>
+        <v>7.56115203283754</v>
       </c>
       <c r="J41" t="n">
-        <v>16.64595881841754</v>
+        <v>16.64595881841761</v>
       </c>
       <c r="K41" t="n">
-        <v>24.9479772491292</v>
+        <v>24.94797724912932</v>
       </c>
       <c r="L41" t="n">
-        <v>30.95017182859748</v>
+        <v>30.95017182859763</v>
       </c>
       <c r="M41" t="n">
-        <v>34.43802961898653</v>
+        <v>34.43802961898669</v>
       </c>
       <c r="N41" t="n">
-        <v>34.99527294207322</v>
+        <v>34.99527294207338</v>
       </c>
       <c r="O41" t="n">
-        <v>33.04504389009143</v>
+        <v>33.04504389009158</v>
       </c>
       <c r="P41" t="n">
-        <v>28.20318043608259</v>
+        <v>28.20318043608272</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.17941395722925</v>
+        <v>21.17941395722935</v>
       </c>
       <c r="R41" t="n">
-        <v>12.31990704578766</v>
+        <v>12.31990704578772</v>
       </c>
       <c r="S41" t="n">
-        <v>4.469223836282592</v>
+        <v>4.469223836282613</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8585420666298206</v>
+        <v>0.8585420666298247</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01569008916742104</v>
+        <v>0.01569008916742111</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1049367225389487</v>
+        <v>0.1049367225389492</v>
       </c>
       <c r="H42" t="n">
-        <v>1.013467820310373</v>
+        <v>1.013467820310378</v>
       </c>
       <c r="I42" t="n">
-        <v>3.612952947064682</v>
+        <v>3.612952947064699</v>
       </c>
       <c r="J42" t="n">
-        <v>9.914219036015329</v>
+        <v>9.914219036015375</v>
       </c>
       <c r="K42" t="n">
-        <v>16.94497944612489</v>
+        <v>16.94497944612497</v>
       </c>
       <c r="L42" t="n">
-        <v>22.78461600566078</v>
+        <v>22.78461600566088</v>
       </c>
       <c r="M42" t="n">
-        <v>26.58857219769766</v>
+        <v>26.58857219769779</v>
       </c>
       <c r="N42" t="n">
-        <v>27.29229258700492</v>
+        <v>27.29229258700504</v>
       </c>
       <c r="O42" t="n">
-        <v>24.96711573495768</v>
+        <v>24.9671157349578</v>
       </c>
       <c r="P42" t="n">
-        <v>20.03831151710855</v>
+        <v>20.03831151710865</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.39508058234019</v>
+        <v>13.39508058234025</v>
       </c>
       <c r="R42" t="n">
-        <v>6.515281773076135</v>
+        <v>6.515281773076165</v>
       </c>
       <c r="S42" t="n">
-        <v>1.949153596282665</v>
+        <v>1.949153596282674</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4229686316372537</v>
+        <v>0.4229686316372556</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006903731745983471</v>
+        <v>0.006903731745983503</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08797542312368004</v>
+        <v>0.08797542312368044</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7821814892269012</v>
+        <v>0.7821814892269049</v>
       </c>
       <c r="I43" t="n">
-        <v>2.645660906301215</v>
+        <v>2.645660906301227</v>
       </c>
       <c r="J43" t="n">
-        <v>6.219862414844178</v>
+        <v>6.219862414844207</v>
       </c>
       <c r="K43" t="n">
-        <v>10.22114461382392</v>
+        <v>10.22114461382396</v>
       </c>
       <c r="L43" t="n">
-        <v>13.07954608876967</v>
+        <v>13.07954608876973</v>
       </c>
       <c r="M43" t="n">
-        <v>13.79054746292377</v>
+        <v>13.79054746292383</v>
       </c>
       <c r="N43" t="n">
-        <v>13.46263906764461</v>
+        <v>13.46263906764467</v>
       </c>
       <c r="O43" t="n">
-        <v>12.43492617024525</v>
+        <v>12.43492617024531</v>
       </c>
       <c r="P43" t="n">
-        <v>10.64022753852217</v>
+        <v>10.64022753852222</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.366742021747426</v>
+        <v>7.36674202174746</v>
       </c>
       <c r="R43" t="n">
-        <v>3.955694934270194</v>
+        <v>3.955694934270213</v>
       </c>
       <c r="S43" t="n">
-        <v>1.533171692073587</v>
+        <v>1.533171692073594</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3758949897102691</v>
+        <v>0.3758949897102709</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004798659443109826</v>
+        <v>0.004798659443109848</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35386,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="D11" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -35404,13 +35404,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5.488240337430511</v>
+        <v>5.488240337430398</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6805087866931103</v>
+        <v>2.572073816351833</v>
       </c>
       <c r="K11" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.891565029658409</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35434,19 +35434,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.050587375258447</v>
+        <v>5.806119198480267</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="U11" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="V11" t="n">
-        <v>6.050587375258447</v>
+        <v>6.050587375258386</v>
       </c>
       <c r="W11" t="n">
-        <v>5.80611919848036</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.855010797549896</v>
+        <v>6.855010797550969</v>
       </c>
       <c r="D14" t="n">
-        <v>6.855010797549896</v>
+        <v>6.855010797550969</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35641,22 +35641,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.733200953418225</v>
+        <v>5.733200953418475</v>
       </c>
       <c r="J14" t="n">
-        <v>6.855010797549896</v>
+        <v>6.855010797550969</v>
       </c>
       <c r="K14" t="n">
-        <v>4.926302429690203</v>
+        <v>0.2791509112301931</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06288167270156464</v>
+        <v>0.06288167270196254</v>
       </c>
       <c r="N14" t="n">
-        <v>2.136525645646145</v>
+        <v>2.136525645646543</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35668,19 +35668,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.93088914585616</v>
+        <v>1.930889145856449</v>
       </c>
       <c r="S14" t="n">
-        <v>6.855010797549896</v>
+        <v>6.855010797550969</v>
       </c>
       <c r="T14" t="n">
-        <v>6.855010797549896</v>
+        <v>6.855010797550969</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.855010797550969</v>
       </c>
       <c r="V14" t="n">
-        <v>6.855010797549896</v>
+        <v>4.647151518460134</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -35860,10 +35860,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>16.18346265559569</v>
+        <v>16.18346265559575</v>
       </c>
       <c r="D17" t="n">
-        <v>12.75755212936497</v>
+        <v>16.18346265559575</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -35878,52 +35878,52 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.781890715408565</v>
+        <v>7.781890715408508</v>
       </c>
       <c r="J17" t="n">
-        <v>14.16665681805199</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>9.288140111059352</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.111571434691882</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.121621139874037</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.918838721272323</v>
+        <v>1.91883872127238</v>
       </c>
       <c r="R17" t="n">
-        <v>3.979578907846477</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.18346265559569</v>
+        <v>16.18346265559575</v>
       </c>
       <c r="T17" t="n">
-        <v>16.18346265559569</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>16.18346265559575</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>8.665377663175036</v>
       </c>
       <c r="W17" t="n">
-        <v>16.18346265559569</v>
+        <v>16.18346265559575</v>
       </c>
       <c r="X17" t="n">
-        <v>0.5175314490628011</v>
+        <v>0.5175314490627443</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>20.04024121506012</v>
+        <v>20.04024121506018</v>
       </c>
       <c r="D20" t="n">
-        <v>20.18544307877202</v>
+        <v>20.1854430787727</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>20.18544307877202</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>9.810004588726372</v>
+        <v>9.810004588726532</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.633435912358948</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4.707079885303756</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36139,28 +36139,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.440703198939389</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.501443385513543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.95370359018915</v>
       </c>
       <c r="T20" t="n">
-        <v>20.18544307877202</v>
+        <v>20.1854430787727</v>
       </c>
       <c r="U20" t="n">
-        <v>20.18544307877202</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>20.1854430787727</v>
       </c>
       <c r="W20" t="n">
-        <v>2.085200978681769</v>
+        <v>20.1854430787727</v>
       </c>
       <c r="X20" t="n">
-        <v>1.039395926729867</v>
+        <v>1.039395926729924</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -36334,10 +36334,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>21.33784145526653</v>
+        <v>21.33784145526647</v>
       </c>
       <c r="D23" t="n">
-        <v>1.359522869006696</v>
+        <v>1.359522869006867</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9.500444403613974</v>
+        <v>31.20397574860067</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>11.10760482893284</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>6.004680125509935</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36382,19 +36382,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>31.20397574860067</v>
       </c>
       <c r="T23" t="n">
-        <v>31.20397574860061</v>
+        <v>4.39751970019114</v>
       </c>
       <c r="U23" t="n">
-        <v>31.20397574860061</v>
+        <v>31.20397574860067</v>
       </c>
       <c r="V23" t="n">
-        <v>31.20397574860061</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>26.79337388902405</v>
+        <v>26.793373889024</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -36571,10 +36571,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>21.33784145526658</v>
       </c>
       <c r="D26" t="n">
-        <v>22.697364324273</v>
+        <v>31.20397574860056</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -36589,49 +36589,49 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>9.601355433282095</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>11.10760482893295</v>
+        <v>11.10760482893294</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>3.931036152565525</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>6.004680125510163</v>
       </c>
       <c r="O26" t="n">
-        <v>2.94108585774768</v>
+        <v>2.941085857747737</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.738303439145955</v>
+        <v>3.738303439145966</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>5.799043625720069</v>
       </c>
       <c r="S26" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860056</v>
       </c>
       <c r="T26" t="n">
-        <v>31.2039757486005</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>24.99106999933224</v>
+        <v>31.20397574860056</v>
       </c>
       <c r="W26" t="n">
-        <v>26.79337388902417</v>
+        <v>4.465947976815642</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -36808,10 +36808,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>21.3378414552667</v>
+        <v>21.33784145526653</v>
       </c>
       <c r="D29" t="n">
-        <v>1.359522869006696</v>
+        <v>28.25762222815263</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36826,22 +36826,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.601355433282038</v>
       </c>
       <c r="J29" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860061</v>
       </c>
       <c r="K29" t="n">
-        <v>11.10760482893295</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.931036152565525</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>6.004680125510106</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36853,19 +36853,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>5.799043625720003</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>21.25517731113986</v>
+        <v>31.20397574860061</v>
       </c>
       <c r="U29" t="n">
-        <v>31.2039757486005</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>31.2039757486005</v>
+        <v>31.20397574860061</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -37048,7 +37048,7 @@
         <v>22.57338937097467</v>
       </c>
       <c r="D32" t="n">
-        <v>38.40042017080771</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -37066,40 +37066,40 @@
         <v>10.83690334899018</v>
       </c>
       <c r="J32" t="n">
+        <v>31.69383538703084</v>
+      </c>
+      <c r="K32" t="n">
+        <v>12.34315274464103</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4.973851354854048</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7.034591541428151</v>
+      </c>
+      <c r="S32" t="n">
         <v>51.38941882737333</v>
       </c>
-      <c r="K32" t="n">
-        <v>12.34315274464092</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5.301858112506693</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>51.38941882737333</v>
       </c>
       <c r="U32" t="n">
-        <v>51.38941882737333</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -37282,7 +37282,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>22.20303383351461</v>
+        <v>22.2030338335145</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>10.46654781153001</v>
       </c>
       <c r="J35" t="n">
-        <v>45.33883145211496</v>
+        <v>40.04531020777011</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.796228530813437</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37327,25 +37327,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.664236003968028</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>45.33883145211496</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>26.95301923283941</v>
+        <v>45.33883145211502</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>36.44264574562055</v>
       </c>
       <c r="W35" t="n">
-        <v>27.65856626727214</v>
+        <v>27.65856626727202</v>
       </c>
       <c r="X35" t="n">
-        <v>3.202188545184356</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -37519,10 +37519,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>17.97535456559103</v>
       </c>
       <c r="D38" t="n">
-        <v>37.98082599742156</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -37540,49 +37540,49 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.53440802982351</v>
+        <v>44.53440802982244</v>
       </c>
       <c r="K38" t="n">
-        <v>11.92355857125477</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.746989894887349</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>6.82063386783193</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>3.757039600069504</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.55425718146779</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.614997368041944</v>
+        <v>6.614997368041941</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>44.53440802982244</v>
       </c>
       <c r="U38" t="n">
-        <v>23.48873502308372</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>36.39340710969458</v>
+        <v>36.39340710969452</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>27.60932763134599</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>3.152949909258211</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -37756,10 +37756,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>21.58280207125432</v>
       </c>
       <c r="D41" t="n">
-        <v>35.20595617177696</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37774,25 +37774,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.846316049269717</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>35.20595617177696</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>11.35256544492044</v>
+        <v>1.805602001228067</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.175996768553034</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>6.249640741497615</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>3.186046473735168</v>
+        <v>3.186046473735416</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37801,25 +37801,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.044004241707796</v>
       </c>
       <c r="S41" t="n">
-        <v>22.26426703203736</v>
+        <v>35.2059561717776</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>35.2059561717776</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>35.20595617177696</v>
+        <v>35.2059561717776</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>27.03833450501185</v>
       </c>
       <c r="X41" t="n">
-        <v>2.581956782923953</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -37993,10 +37993,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>21.33784145526653</v>
+        <v>21.33784145526647</v>
       </c>
       <c r="D44" t="n">
-        <v>1.359522869007037</v>
+        <v>31.20397574860067</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -38011,52 +38011,52 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.601355433282038</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>31.20397574860061</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>11.10760482893276</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>3.931036152565412</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>6.004680125510049</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.941085857747566</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>3.738303439145795</v>
       </c>
       <c r="R44" t="n">
-        <v>5.799043625720003</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>31.20397574860061</v>
+        <v>31.20397574860067</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>31.20397574860067</v>
       </c>
       <c r="V44" t="n">
-        <v>31.20397574860061</v>
+        <v>26.47511685214022</v>
       </c>
       <c r="W44" t="n">
-        <v>11.68430105638708</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.336996166936274</v>
+        <v>2.336996166936217</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
